--- a/src/com/interview/excel/DS problem for interview.xlsx
+++ b/src/com/interview/excel/DS problem for interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="677" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="677" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Arr &amp; Str" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="BinarySearch" sheetId="4" r:id="rId3"/>
     <sheet name="Heap" sheetId="7" r:id="rId4"/>
     <sheet name="LinkedList" sheetId="2" r:id="rId5"/>
-    <sheet name="~DP~" sheetId="5" r:id="rId6"/>
-    <sheet name="Tree" sheetId="6" r:id="rId7"/>
-    <sheet name="BFS" sheetId="8" r:id="rId8"/>
-    <sheet name="Backtrack" sheetId="10" r:id="rId9"/>
-    <sheet name="By Companies" sheetId="9" r:id="rId10"/>
+    <sheet name="Backtrack" sheetId="10" r:id="rId6"/>
+    <sheet name="~DP~" sheetId="5" r:id="rId7"/>
+    <sheet name="Tree" sheetId="6" r:id="rId8"/>
+    <sheet name="BFS" sheetId="8" r:id="rId9"/>
+    <sheet name="Design" sheetId="11" r:id="rId10"/>
+    <sheet name="By Companies" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="865">
   <si>
     <t>Problem Name</t>
   </si>
@@ -468,9 +469,6 @@
     <t>Use Two arrays with Two Pointers</t>
   </si>
   <si>
-    <t>MaxConsecutiveOneKValueChanges</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/max-consecutive-ones-iii/</t>
   </si>
   <si>
@@ -519,18 +517,12 @@
     <t>Easy, but really good example</t>
   </si>
   <si>
-    <t>SubArrayProductLessthankK</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/subarray-product-less-than-k/</t>
   </si>
   <si>
     <t>Almost similar to BinarySubArrayWithSum</t>
   </si>
   <si>
-    <t>SubArrayKDifferentIntegers</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/subarrays-with-k-different-integers/</t>
   </si>
   <si>
@@ -564,9 +556,6 @@
     <t>com.interview.array</t>
   </si>
   <si>
-    <t>DietPlanPerformannce</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/diet-plan-performance/discuss/371894/Simple-java-implementation</t>
   </si>
   <si>
@@ -615,18 +604,12 @@
     <t>same as SubArrayKDifferentIntegers</t>
   </si>
   <si>
-    <t>LongestSubStringWithoutRepeatChar</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
   </si>
   <si>
     <t>Hasset with Sliding window</t>
   </si>
   <si>
-    <t>LongestTurbulantSubArray</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-turbulent-subarray/</t>
   </si>
   <si>
@@ -795,9 +778,6 @@
     <t>Use of Two stack to implement queue</t>
   </si>
   <si>
-    <t>RemoveOuterParantheses</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/remove-outermost-parentheses/</t>
   </si>
   <si>
@@ -813,9 +793,6 @@
     <t>Teaching using of Queue to Implement a stack</t>
   </si>
   <si>
-    <t>ValidParanthesis</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/valid-parentheses/</t>
   </si>
   <si>
@@ -885,12 +862,6 @@
     <t>Same as ValidParantheses</t>
   </si>
   <si>
-    <t>MinAddValidParantheses</t>
-  </si>
-  <si>
-    <t>NextGreaterElement-II</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/next-greater-element-ii/</t>
   </si>
   <si>
@@ -906,9 +877,6 @@
     <t>Interesting logical similar to NextGreaterElement</t>
   </si>
   <si>
-    <t>ScoreParantheses</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/score-of-parentheses/</t>
   </si>
   <si>
@@ -963,9 +931,6 @@
     <t>Use of TreeMap helps in BinarySearch</t>
   </si>
   <si>
-    <t>PeakIndexInMountainArray</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/peak-index-in-a-mountain-array/</t>
   </si>
   <si>
@@ -984,9 +949,6 @@
     <t>Search in sorted array and finding last inserted index</t>
   </si>
   <si>
-    <t>SmallLetterGreaterThanTarget</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/</t>
   </si>
   <si>
@@ -1026,9 +988,6 @@
     <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/</t>
   </si>
   <si>
-    <t>FindFirstAndLastPosition</t>
-  </si>
-  <si>
     <t>SmallLetterGreaterThanTarget + two passes</t>
   </si>
   <si>
@@ -1098,9 +1057,6 @@
     <t>Binary search in 2D array : KthElementSortedMatrix</t>
   </si>
   <si>
-    <t>TimeStampHashMap</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/time-based-key-value-store/</t>
   </si>
   <si>
@@ -1338,9 +1294,6 @@
     <t>Similar to MinPathSum</t>
   </si>
   <si>
-    <t>KnapsackZeroOne</t>
-  </si>
-  <si>
     <t>com.interview.codechef.ccdsap_2.atcoder.educationalDPContest</t>
   </si>
   <si>
@@ -1350,18 +1303,12 @@
     <t>Standard Inclusive - Exclusive algo (https://atcoder.jp/contests/dp/tasks/dp_e)</t>
   </si>
   <si>
-    <t>OneAndZeros</t>
-  </si>
-  <si>
     <t>Example of KnapSack : https://leetcode.com/problems/ones-and-zeroes/</t>
   </si>
   <si>
     <t>Read Recursive first for better understanding</t>
   </si>
   <si>
-    <t>MaximalSquare</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/maximal-square/</t>
   </si>
   <si>
@@ -1437,9 +1384,6 @@
     <t>Use of Stack in Tree and Modify existing tree</t>
   </si>
   <si>
-    <t>CousinN+BinaryTree</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/cousins-in-binary-tree/</t>
   </si>
   <si>
@@ -1494,9 +1438,6 @@
     <t>Prev node comparison + Path calculation is same as DiameterOfTree : l + r</t>
   </si>
   <si>
-    <t>LongestUnivaluedPath</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-univalue-path/</t>
   </si>
   <si>
@@ -1518,9 +1459,6 @@
     <t>Merging a Tree using Temp node</t>
   </si>
   <si>
-    <t>MinInBST</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/minimum-absolute-difference-in-bst/</t>
   </si>
   <si>
@@ -1605,9 +1543,6 @@
     <t>Easy one</t>
   </si>
   <si>
-    <t>SearchInBSTTree</t>
-  </si>
-  <si>
     <t>SortedArrayToBST</t>
   </si>
   <si>
@@ -1638,9 +1573,6 @@
     <t>https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers/</t>
   </si>
   <si>
-    <t>SumOfRootToLeafBinary</t>
-  </si>
-  <si>
     <t>Level order traversal using Stack</t>
   </si>
   <si>
@@ -1818,12 +1750,6 @@
     <t>Passing result to parent + Finding common node</t>
   </si>
   <si>
-    <t>Pattern -1 : Distinct Ways</t>
-  </si>
-  <si>
-    <t>Climbing Ways</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/climbing-stairs/</t>
   </si>
   <si>
@@ -1962,9 +1888,6 @@
     <t>Read program of : MSFT_Yang</t>
   </si>
   <si>
-    <t>SumRootToLeafNumbers</t>
-  </si>
-  <si>
     <t>PreorderTraversal using stack + Using extra space</t>
   </si>
   <si>
@@ -2317,13 +2240,397 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rjOTv7dzqC8</t>
+  </si>
+  <si>
+    <t>SortCharacterByFrequency</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-characters-by-frequency/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-characters-by-frequency/discuss/93420/Java-O(n)-Bucket-Sort-Solution-O(nlogm)-PriorityQueue-Solution-easy-to-understand</t>
+  </si>
+  <si>
+    <t>TopKFrequenElements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-words/</t>
+  </si>
+  <si>
+    <t>Use of Bucket Sort and TreeMap or PQ to solve the problem</t>
+  </si>
+  <si>
+    <t>TopKFrequentWords</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-words/discuss/108346/My-simple-Java-solution-using-HashMap-and-PriorityQueue-O(nlogk)-time-and-O(n)-space</t>
+  </si>
+  <si>
+    <t>Sort by Both Frequency and Alphabetical : author -&gt; Zzz_</t>
+  </si>
+  <si>
+    <t>MaxProductSplitBinaryTree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-174/problems/maximum-product-of-splitted-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-of-splitted-binary-tree/discuss/496687/Java-concise-One-pass-DFS-Soution</t>
+  </si>
+  <si>
+    <t>Splitting Binary Tree for Max Sum of 2 Tree Product</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>HashMapDesign</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-hashmap/</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsap_2.leetcode.design</t>
+  </si>
+  <si>
+    <t>Creating HashMap using LinkedList</t>
+  </si>
+  <si>
+    <t>HashSetDesign</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-hashset/</t>
+  </si>
+  <si>
+    <t>Creating HashSet with List&lt;Integer&gt;[]</t>
+  </si>
+  <si>
+    <t>HitCounter</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-hit-counter/</t>
+  </si>
+  <si>
+    <t>Hit counter for Last N requests</t>
+  </si>
+  <si>
+    <t>LRUCache</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>Combination of HashMap and LinkedList with Head and Tail Node</t>
+  </si>
+  <si>
+    <t>QueueUsingStacks</t>
+  </si>
+  <si>
+    <t>Using One Input and One Output Stack and pass value in-between</t>
+  </si>
+  <si>
+    <t>StackUsingQueues</t>
+  </si>
+  <si>
+    <t>TinyURL</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/encode-and-decode-tinyurl/</t>
+  </si>
+  <si>
+    <t>Using One Queue, while inserting reinsert N-2 elements</t>
+  </si>
+  <si>
+    <t>62^6 logic to generate Random URL</t>
+  </si>
+  <si>
+    <t>TimeBasedHashMap</t>
+  </si>
+  <si>
+    <t>HashMap in Combination with TreeMap</t>
+  </si>
+  <si>
+    <t>MovingAverageSum</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E-kjYOZEBxY</t>
+  </si>
+  <si>
+    <t>Using Queue to remove top element</t>
+  </si>
+  <si>
+    <t>CircularDequeue</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-circular-deque/</t>
+  </si>
+  <si>
+    <t>Using Array + Front/Rear pointers to create DeQueue</t>
+  </si>
+  <si>
+    <t>TicTacToe</t>
+  </si>
+  <si>
+    <t>https://www.programcreek.com/2014/05/leetcode-tic-tac-toe-java/</t>
+  </si>
+  <si>
+    <t>O(1) using extra space for Row and Cols</t>
+  </si>
+  <si>
+    <t>FruitsIntoBaskets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fruit-into-baskets/</t>
+  </si>
+  <si>
+    <t>Based on Sliding Window</t>
+  </si>
+  <si>
+    <t>MaxSizeSquareSubMatrix</t>
+  </si>
+  <si>
+    <t>Knapsack1</t>
+  </si>
+  <si>
+    <t>OnesAndZeroes</t>
+  </si>
+  <si>
+    <t>CombinationSum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/</t>
+  </si>
+  <si>
+    <t>Using Include-Exclude recursion principle + return in base case + without incrementing index or i</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/discuss/16878/Combination-Sum-I-II-and-III-Java-solution-(see-the-similarities-yourself)</t>
+  </si>
+  <si>
+    <t>CombinationSumII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/</t>
+  </si>
+  <si>
+    <t>Using Include-Exclude recursion principle + return in base case + increment 'I' to avoid duplicate</t>
+  </si>
+  <si>
+    <t>CombinationSumIII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-iii/</t>
+  </si>
+  <si>
+    <t>CombinationOfSizeK</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combinations/</t>
+  </si>
+  <si>
+    <t>Almost same as CombinationSumIII</t>
+  </si>
+  <si>
+    <t>FactorCombinations</t>
+  </si>
+  <si>
+    <t>Proper use of CombinationSum</t>
+  </si>
+  <si>
+    <t>LetterCombinationPhoneNumber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>Almost same as BraceExpansion logic</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveOnesIII</t>
+  </si>
+  <si>
+    <t>SubArrayProductLessthanK</t>
+  </si>
+  <si>
+    <t>SubArrayWithKDiffIntegers</t>
+  </si>
+  <si>
+    <t>DietPlanPerformance</t>
+  </si>
+  <si>
+    <t>LongestSubstringWithoutRepetChar</t>
+  </si>
+  <si>
+    <t>LongestTurbulentArray</t>
+  </si>
+  <si>
+    <t>SubArrayOfSizeK</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-sub-arrays-of-size-k-and-average-greater-than-or-equal-to-threshold/</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsap_2.leetcode.contests.contest175</t>
+  </si>
+  <si>
+    <t>somewhat similar to BinarySubArrayWithSum</t>
+  </si>
+  <si>
+    <t>BinaryTreeLevelOrder</t>
+  </si>
+  <si>
+    <t>CousinsBinaryTree</t>
+  </si>
+  <si>
+    <t>LongestUnivaluePath</t>
+  </si>
+  <si>
+    <t>Traversals</t>
+  </si>
+  <si>
+    <t>InorderTraversal</t>
+  </si>
+  <si>
+    <t>PostOrderTraversal</t>
+  </si>
+  <si>
+    <t>SumRootLeafBinaryNum</t>
+  </si>
+  <si>
+    <t>MinABSBST</t>
+  </si>
+  <si>
+    <t>SearchInBST</t>
+  </si>
+  <si>
+    <t>ClimbingStairs</t>
+  </si>
+  <si>
+    <t>Pattern -2 : Distinct Ways</t>
+  </si>
+  <si>
+    <t>Pattern -3 : Merge Intervals</t>
+  </si>
+  <si>
+    <t>BurstBalloons</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/burst-balloons/</t>
+  </si>
+  <si>
+    <t>Based on Popular WineSelling Problem</t>
+  </si>
+  <si>
+    <t>MaxSubArraySumOneDeletion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray-sum-with-one-deletion/</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsap_2.leetcode.dp.newproblems</t>
+  </si>
+  <si>
+    <t>Based on MaxSubArraySum</t>
+  </si>
+  <si>
+    <t>WiggleSubSequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/wiggle-subsequence/</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsapfoundation_1.DP.educativeIO</t>
+  </si>
+  <si>
+    <t>Toggling the Sequence</t>
+  </si>
+  <si>
+    <t>OutOfBoundaryPaths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/out-of-boundary-paths/</t>
+  </si>
+  <si>
+    <t>Logically same as BFS --&gt; FarLandPossible</t>
+  </si>
+  <si>
+    <t>WaysToStayInSamePlace</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps/</t>
+  </si>
+  <si>
+    <t>Somewhat similar to UniquePaths, finding ways through 1D array.</t>
+  </si>
+  <si>
+    <t>SumRootLeafNumbers</t>
+  </si>
+  <si>
+    <t>Pattern - 4 : DP on Strings</t>
+  </si>
+  <si>
+    <t>LongestCommonSubsequence</t>
+  </si>
+  <si>
+    <t>http://www.geeksforgeeks.org/dynamic-programming-set-4-longest-common-subsequence/</t>
+  </si>
+  <si>
+    <t>com.interview.dynamic</t>
+  </si>
+  <si>
+    <t>LCS between two strings</t>
+  </si>
+  <si>
+    <t>CountPaindromicSubstrings</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-palindrome-sub-strings-string/</t>
+  </si>
+  <si>
+    <t>Count Palindromic using 2 approaches</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-subsequence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-subsequence/discuss/99151/Super-simple-solution-using-reversed-string</t>
+  </si>
+  <si>
+    <t>Same as LCS</t>
+  </si>
+  <si>
+    <t>LongestPalindromicSubsequence</t>
+  </si>
+  <si>
+    <t>RemoveOuterParanthesis</t>
+  </si>
+  <si>
+    <t>ValidParantheses</t>
+  </si>
+  <si>
+    <t>MinimumAddParnanValid</t>
+  </si>
+  <si>
+    <t>NextGreaterElementII</t>
+  </si>
+  <si>
+    <t>ScoreParentheses</t>
+  </si>
+  <si>
+    <t>PeakIndexMountainArray</t>
+  </si>
+  <si>
+    <t>SmallestLetterGreaterTarget</t>
+  </si>
+  <si>
+    <t>FirstLastPositionElement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2370,6 +2677,20 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF629755"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2423,7 +2744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2447,6 +2768,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2728,10 +3055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3229,7 +3556,7 @@
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -3494,10 +3821,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>135</v>
@@ -3506,15 +3833,15 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>135</v>
@@ -3523,15 +3850,15 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>135</v>
@@ -3540,15 +3867,15 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>135</v>
@@ -3562,10 +3889,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>135</v>
@@ -3574,15 +3901,15 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>135</v>
@@ -3591,41 +3918,41 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -3652,10 +3979,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>805</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>135</v>
@@ -3664,15 +3991,15 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>806</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>135</v>
@@ -3681,15 +4008,15 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>166</v>
+      <c r="A64" s="17" t="s">
+        <v>807</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>135</v>
@@ -3698,355 +4025,376 @@
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>808</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
         <v>192</v>
       </c>
-      <c r="B69" s="10" t="s">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
         <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
         <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>211</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>216</v>
+      <c r="A76" t="s">
+        <v>811</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4110,16 +4458,16 @@
     <hyperlink ref="B72" r:id="rId57"/>
     <hyperlink ref="B73" r:id="rId58"/>
     <hyperlink ref="B74" r:id="rId59"/>
-    <hyperlink ref="B79" r:id="rId60"/>
-    <hyperlink ref="B80" r:id="rId61"/>
-    <hyperlink ref="B81" r:id="rId62"/>
-    <hyperlink ref="B82" r:id="rId63"/>
-    <hyperlink ref="B83" r:id="rId64"/>
-    <hyperlink ref="B84" r:id="rId65"/>
-    <hyperlink ref="B85" r:id="rId66"/>
-    <hyperlink ref="B86" r:id="rId67"/>
-    <hyperlink ref="B87" r:id="rId68"/>
-    <hyperlink ref="B75" r:id="rId69"/>
+    <hyperlink ref="B75" r:id="rId60"/>
+    <hyperlink ref="B89" r:id="rId61"/>
+    <hyperlink ref="B88" r:id="rId62"/>
+    <hyperlink ref="B87" r:id="rId63"/>
+    <hyperlink ref="B86" r:id="rId64"/>
+    <hyperlink ref="B85" r:id="rId65"/>
+    <hyperlink ref="B84" r:id="rId66"/>
+    <hyperlink ref="B83" r:id="rId67"/>
+    <hyperlink ref="B82" r:id="rId68"/>
+    <hyperlink ref="B81" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId70"/>
@@ -4128,10 +4476,291 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="56.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>764</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>766</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>779</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4162,94 +4791,111 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>761</v>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -4259,9 +4905,10 @@
     <hyperlink ref="B5" r:id="rId3" display="https://www.interviewbit.com/problems/boundary-traversal-of-binary-tree/"/>
     <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="B16" r:id="rId5"/>
+    <hyperlink ref="B17" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4269,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4307,18 +4954,18 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4326,101 +4973,101 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>244</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>857</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>858</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -4428,223 +5075,223 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>285</v>
+      <c r="A22" s="17" t="s">
+        <v>859</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>286</v>
+      <c r="A23" s="17" t="s">
+        <v>860</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>292</v>
+      <c r="A25" s="17" t="s">
+        <v>861</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4679,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4718,279 +5365,279 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>311</v>
+      <c r="A7" s="17" t="s">
+        <v>862</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>318</v>
+      <c r="A9" s="17" t="s">
+        <v>863</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>332</v>
+      <c r="A15" s="17" t="s">
+        <v>864</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>356</v>
+      <c r="A21" s="17" t="s">
+        <v>771</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5019,10 +5666,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5052,131 +5699,182 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>676</v>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>737</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>740</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>743</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -5188,9 +5886,14 @@
     <hyperlink ref="B7" r:id="rId5"/>
     <hyperlink ref="B8" r:id="rId6"/>
     <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B14" r:id="rId8"/>
+    <hyperlink ref="C14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -5237,143 +5940,143 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -5383,19 +6086,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -5417,10 +6120,398 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="64.6328125" customWidth="1"/>
+    <col min="5" max="5" width="68.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>802</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="10"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>713</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>716</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>719</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>725</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>730</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>788</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>792</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>795</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>797</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>800</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>801</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://leetcode.com/problems/beautiful-arrangement/"/>
+    <hyperlink ref="B15" r:id="rId5"/>
+    <hyperlink ref="B16" r:id="rId6"/>
+    <hyperlink ref="B18" r:id="rId7"/>
+    <hyperlink ref="B19" r:id="rId8"/>
+    <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="B23" r:id="rId11"/>
+    <hyperlink ref="C26" r:id="rId12"/>
+    <hyperlink ref="B26" r:id="rId13"/>
+    <hyperlink ref="B27" r:id="rId14"/>
+    <hyperlink ref="B28" r:id="rId15"/>
+    <hyperlink ref="B11" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E84"/>
+  <sheetViews>
+    <sheetView topLeftCell="C65" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5434,34 +6525,34 @@
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5490,109 +6581,109 @@
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B18" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -5625,58 +6716,58 @@
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -5686,172 +6777,185 @@
       <c r="B32" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>407</v>
+      <c r="C32" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B35" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>428</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>433</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>436</v>
-      </c>
-      <c r="B36" t="s">
-        <v>439</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>440</v>
-      </c>
-      <c r="B37" t="s">
-        <v>441</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>443</v>
+      <c r="A38" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>445</v>
+        <v>431</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>446</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>450</v>
+      <c r="A39" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="E39" t="s">
-        <v>578</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>342</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>343</v>
+        <v>650</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>329</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
-        <v>344</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>345</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>676</v>
+        <v>830</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>678</v>
+        <v>831</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>407</v>
+        <v>832</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>679</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
+      <c r="A42" t="s">
+        <v>834</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
@@ -5869,183 +6973,308 @@
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="50" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
-        <v>596</v>
+    <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>824</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>599</v>
+        <v>392</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>407</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>177</v>
+        <v>392</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>677</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>615</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>616</v>
+        <v>593</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>594</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>618</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>619</v>
+        <v>596</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>624</v>
+        <v>394</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>626</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>838</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>841</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>827</v>
+      </c>
+      <c r="B73" t="s">
+        <v>828</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="D73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>846</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>850</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>856</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -6056,46 +7285,51 @@
     <hyperlink ref="B17" r:id="rId4"/>
     <hyperlink ref="C17" r:id="rId5"/>
     <hyperlink ref="B29" r:id="rId6"/>
-    <hyperlink ref="C32" r:id="rId7" display="https://leetcode.com/problems/decode-ways/discuss/217193/5ms-SLOPPY-Java-Solution-Using-Recursion-and-Memoization"/>
-    <hyperlink ref="B32" r:id="rId8"/>
+    <hyperlink ref="C60" r:id="rId7" display="https://leetcode.com/problems/decode-ways/discuss/217193/5ms-SLOPPY-Java-Solution-Using-Recursion-and-Memoization"/>
+    <hyperlink ref="B60" r:id="rId8"/>
     <hyperlink ref="B30" r:id="rId9"/>
     <hyperlink ref="B31" r:id="rId10"/>
-    <hyperlink ref="B33" r:id="rId11"/>
-    <hyperlink ref="B34" r:id="rId12"/>
-    <hyperlink ref="B35" r:id="rId13"/>
-    <hyperlink ref="B38" r:id="rId14"/>
-    <hyperlink ref="B39" r:id="rId15"/>
-    <hyperlink ref="C39" r:id="rId16"/>
-    <hyperlink ref="B51" r:id="rId17"/>
-    <hyperlink ref="B52" r:id="rId18"/>
-    <hyperlink ref="B53" r:id="rId19"/>
-    <hyperlink ref="B54" r:id="rId20"/>
-    <hyperlink ref="B56" r:id="rId21"/>
-    <hyperlink ref="B55" r:id="rId22"/>
-    <hyperlink ref="B57" r:id="rId23"/>
-    <hyperlink ref="B58" r:id="rId24"/>
-    <hyperlink ref="B59" r:id="rId25"/>
-    <hyperlink ref="B60" r:id="rId26"/>
-    <hyperlink ref="B41" r:id="rId27"/>
+    <hyperlink ref="B32" r:id="rId11"/>
+    <hyperlink ref="B33" r:id="rId12"/>
+    <hyperlink ref="B34" r:id="rId13"/>
+    <hyperlink ref="B37" r:id="rId14"/>
+    <hyperlink ref="B38" r:id="rId15"/>
+    <hyperlink ref="C38" r:id="rId16"/>
+    <hyperlink ref="B50" r:id="rId17"/>
+    <hyperlink ref="B51" r:id="rId18"/>
+    <hyperlink ref="B52" r:id="rId19"/>
+    <hyperlink ref="B53" r:id="rId20"/>
+    <hyperlink ref="B55" r:id="rId21"/>
+    <hyperlink ref="B54" r:id="rId22"/>
+    <hyperlink ref="B56" r:id="rId23"/>
+    <hyperlink ref="B57" r:id="rId24"/>
+    <hyperlink ref="B58" r:id="rId25"/>
+    <hyperlink ref="B59" r:id="rId26"/>
+    <hyperlink ref="B40" r:id="rId27"/>
+    <hyperlink ref="B41" r:id="rId28"/>
+    <hyperlink ref="B42" r:id="rId29"/>
+    <hyperlink ref="B61" r:id="rId30"/>
+    <hyperlink ref="B62" r:id="rId31"/>
+    <hyperlink ref="B84" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="2" max="2" width="49.08984375" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" customWidth="1"/>
+    <col min="3" max="3" width="52.6328125" customWidth="1"/>
     <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6118,1031 +7352,1097 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>457</v>
+      <c r="A4" s="7" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>458</v>
+        <v>819</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>453</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>459</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>461</v>
+      <c r="A6" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>453</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>470</v>
+      <c r="A7" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>453</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>475</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>815</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>816</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>514</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>515</v>
+        <v>456</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>529</v>
+        <v>465</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>531</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>817</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>533</v>
+        <v>469</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>473</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>535</v>
+        <v>474</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>478</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>544</v>
+        <v>479</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>545</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>547</v>
+      <c r="A22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>464</v>
+        <v>500</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>496</v>
+      <c r="A27" s="17" t="s">
+        <v>821</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>526</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>539</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>538</v>
+        <v>445</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>446</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>553</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>540</v>
+        <v>448</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>541</v>
+        <v>449</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>548</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>462</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>490</v>
+        <v>823</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>550</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>552</v>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>554</v>
+        <v>470</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>555</v>
+        <v>471</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>556</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>560</v>
+        <v>484</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>561</v>
+        <v>485</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>562</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>563</v>
+        <v>487</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>564</v>
+        <v>488</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>629</v>
+        <v>435</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>566</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>569</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>571</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>581</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>583</v>
+        <v>535</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>581</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>627</v>
+        <v>546</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>628</v>
+        <v>547</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>630</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>631</v>
+        <v>554</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>632</v>
+        <v>552</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>633</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>634</v>
+        <v>556</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>636</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>644</v>
+        <v>559</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>635</v>
+        <v>560</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>645</v>
+        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>646</v>
+        <v>561</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>647</v>
+        <v>562</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>648</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>649</v>
+        <v>564</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>650</v>
+        <v>565</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>651</v>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>570</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>602</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>606</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>609</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>572</v>
+      <c r="A65" s="17" t="s">
+        <v>844</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>574</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>640</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" t="s">
-        <v>643</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>549</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>567</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>612</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>615</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>746</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B25" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B26" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B36" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B27" r:id="rId14"/>
-    <hyperlink ref="B14" r:id="rId15"/>
-    <hyperlink ref="B37" r:id="rId16"/>
-    <hyperlink ref="B38" r:id="rId17"/>
-    <hyperlink ref="B39" r:id="rId18"/>
-    <hyperlink ref="B15" r:id="rId19"/>
-    <hyperlink ref="B16" r:id="rId20"/>
-    <hyperlink ref="B28" r:id="rId21"/>
-    <hyperlink ref="B17" r:id="rId22"/>
-    <hyperlink ref="B29" r:id="rId23"/>
-    <hyperlink ref="B30" r:id="rId24"/>
-    <hyperlink ref="B18" r:id="rId25"/>
-    <hyperlink ref="B19" r:id="rId26"/>
-    <hyperlink ref="B20" r:id="rId27"/>
-    <hyperlink ref="B31" r:id="rId28"/>
-    <hyperlink ref="B32" r:id="rId29"/>
-    <hyperlink ref="B21" r:id="rId30"/>
-    <hyperlink ref="B42" r:id="rId31"/>
-    <hyperlink ref="B43" r:id="rId32" display="https://leetcode.com/problems/trim-a-binary-search-tree/"/>
-    <hyperlink ref="B44" r:id="rId33"/>
-    <hyperlink ref="B45" r:id="rId34"/>
-    <hyperlink ref="B46" r:id="rId35"/>
-    <hyperlink ref="B47" r:id="rId36"/>
-    <hyperlink ref="B48" r:id="rId37"/>
-    <hyperlink ref="B65" r:id="rId38"/>
-    <hyperlink ref="B49" r:id="rId39"/>
-    <hyperlink ref="B50" r:id="rId40"/>
-    <hyperlink ref="B51" r:id="rId41"/>
-    <hyperlink ref="B52" r:id="rId42"/>
-    <hyperlink ref="B53" r:id="rId43"/>
-    <hyperlink ref="B66" r:id="rId44"/>
-    <hyperlink ref="B54" r:id="rId45"/>
-    <hyperlink ref="B55" r:id="rId46"/>
-    <hyperlink ref="B56" r:id="rId47"/>
-    <hyperlink ref="B57" r:id="rId48"/>
-    <hyperlink ref="B67" r:id="rId49"/>
-    <hyperlink ref="B68" r:id="rId50"/>
-    <hyperlink ref="C68" r:id="rId51"/>
-    <hyperlink ref="B58" r:id="rId52"/>
-    <hyperlink ref="B59" r:id="rId53"/>
-    <hyperlink ref="B60" r:id="rId54"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B32" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B33" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B19" r:id="rId11"/>
+    <hyperlink ref="B43" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B34" r:id="rId14"/>
+    <hyperlink ref="B21" r:id="rId15"/>
+    <hyperlink ref="B44" r:id="rId16"/>
+    <hyperlink ref="B45" r:id="rId17"/>
+    <hyperlink ref="B46" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B35" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B36" r:id="rId23"/>
+    <hyperlink ref="B37" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25"/>
+    <hyperlink ref="B26" r:id="rId26"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="B38" r:id="rId28"/>
+    <hyperlink ref="B39" r:id="rId29"/>
+    <hyperlink ref="B28" r:id="rId30"/>
+    <hyperlink ref="B49" r:id="rId31"/>
+    <hyperlink ref="B50" r:id="rId32" display="https://leetcode.com/problems/trim-a-binary-search-tree/"/>
+    <hyperlink ref="B51" r:id="rId33"/>
+    <hyperlink ref="B52" r:id="rId34"/>
+    <hyperlink ref="B53" r:id="rId35"/>
+    <hyperlink ref="B54" r:id="rId36"/>
+    <hyperlink ref="B55" r:id="rId37"/>
+    <hyperlink ref="B72" r:id="rId38"/>
+    <hyperlink ref="B56" r:id="rId39"/>
+    <hyperlink ref="B57" r:id="rId40"/>
+    <hyperlink ref="B58" r:id="rId41"/>
+    <hyperlink ref="B59" r:id="rId42"/>
+    <hyperlink ref="B60" r:id="rId43"/>
+    <hyperlink ref="B73" r:id="rId44"/>
+    <hyperlink ref="B61" r:id="rId45"/>
+    <hyperlink ref="B62" r:id="rId46"/>
+    <hyperlink ref="B63" r:id="rId47"/>
+    <hyperlink ref="B64" r:id="rId48"/>
+    <hyperlink ref="B74" r:id="rId49"/>
+    <hyperlink ref="B75" r:id="rId50"/>
+    <hyperlink ref="C75" r:id="rId51"/>
+    <hyperlink ref="B65" r:id="rId52"/>
+    <hyperlink ref="B66" r:id="rId53"/>
+    <hyperlink ref="B67" r:id="rId54"/>
+    <hyperlink ref="B77" r:id="rId55"/>
+    <hyperlink ref="C77" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7178,87 +8478,87 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="B6" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="B7" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -7268,138 +8568,138 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -7419,280 +8719,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" customWidth="1"/>
-    <col min="5" max="5" width="68.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>726</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>729</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>753</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>733</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>736</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>739</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>742</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>745</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>749</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>751</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>756</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>758</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4" display="https://leetcode.com/problems/beautiful-arrangement/"/>
-    <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B13" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="B20" r:id="rId11"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
-</worksheet>
 </file>
--- a/src/com/interview/excel/DS problem for interview.xlsx
+++ b/src/com/interview/excel/DS problem for interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="677" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="677" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Arr &amp; Str" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,12 @@
     <sheet name="Backtrack" sheetId="10" r:id="rId6"/>
     <sheet name="~DP~" sheetId="5" r:id="rId7"/>
     <sheet name="Tree" sheetId="6" r:id="rId8"/>
-    <sheet name="BFS" sheetId="8" r:id="rId9"/>
-    <sheet name="Design" sheetId="11" r:id="rId10"/>
-    <sheet name="By Companies" sheetId="9" r:id="rId11"/>
+    <sheet name="Bits" sheetId="14" r:id="rId9"/>
+    <sheet name="BFS" sheetId="8" r:id="rId10"/>
+    <sheet name="Graph" sheetId="13" r:id="rId11"/>
+    <sheet name="Design" sheetId="11" r:id="rId12"/>
+    <sheet name="By Companies" sheetId="9" r:id="rId13"/>
+    <sheet name="Errichto" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="984">
   <si>
     <t>Problem Name</t>
   </si>
@@ -280,9 +283,6 @@
     <t>Make Anagram by Deletion</t>
   </si>
   <si>
-    <t>MergeSotCountingInversion</t>
-  </si>
-  <si>
     <t>https://www.hackerrank.com/challenges/ctci-merge-sort/problem</t>
   </si>
   <si>
@@ -2332,9 +2332,6 @@
     <t>StackUsingQueues</t>
   </si>
   <si>
-    <t>TinyURL</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/encode-and-decode-tinyurl/</t>
   </si>
   <si>
@@ -2581,9 +2578,6 @@
     <t>LCS between two strings</t>
   </si>
   <si>
-    <t>CountPaindromicSubstrings</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/count-palindrome-sub-strings-string/</t>
   </si>
   <si>
@@ -2624,6 +2618,372 @@
   </si>
   <si>
     <t>FirstLastPositionElement</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>NonDecreasingArray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/non-decreasing-array/</t>
+  </si>
+  <si>
+    <t>com.interview.errichto.easy.arrays</t>
+  </si>
+  <si>
+    <t>AngleinClock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/angle-between-hands-of-a-clock/</t>
+  </si>
+  <si>
+    <t>CountPalindromicSubstrings</t>
+  </si>
+  <si>
+    <t>LongestPalindromSubstring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-substring/</t>
+  </si>
+  <si>
+    <t>Easy by Errichto</t>
+  </si>
+  <si>
+    <t>EditDistance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/edit-distance/</t>
+  </si>
+  <si>
+    <t>Edit distance 2D DP</t>
+  </si>
+  <si>
+    <t>MinAsciiDeleteSum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-ascii-delete-sum-for-two-strings/</t>
+  </si>
+  <si>
+    <t>Similar to EditDistance</t>
+  </si>
+  <si>
+    <t>Pattern - 4 : Decision Making</t>
+  </si>
+  <si>
+    <t>HouseRobber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/#</t>
+  </si>
+  <si>
+    <t>BestTimeBuySellStock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>Finding max profit using 1 transaction</t>
+  </si>
+  <si>
+    <t>BestTimeBuySellStockII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
+  </si>
+  <si>
+    <t>Buy and sell stock multiple time but sell previous before buy again</t>
+  </si>
+  <si>
+    <t>BestTimeBuySellStockIII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/</t>
+  </si>
+  <si>
+    <t>Finding max profit using 2 transaction</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-side-length-of-a-square-with-sum-less-than-or-equal-to-threshold/description/</t>
+  </si>
+  <si>
+    <t>MaxSideLengthSquare</t>
+  </si>
+  <si>
+    <t>PENDING….</t>
+  </si>
+  <si>
+    <t>LongestStringChain</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-string-chain/</t>
+  </si>
+  <si>
+    <t>ValidateBinaryTreeNodes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-tree-nodes/</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsap_2.leetcode.contests.contest177</t>
+  </si>
+  <si>
+    <t>Easy problem</t>
+  </si>
+  <si>
+    <t>Based on LIS and one more approach of Substring</t>
+  </si>
+  <si>
+    <t>NumOfSubstringAllThreeChars</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-substrings-containing-all-three-characters/</t>
+  </si>
+  <si>
+    <t>Tricky implementation of SlidingWindow, pattern same as BinarySubArrayWithSum</t>
+  </si>
+  <si>
+    <t>TopNBuzzWords</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/460127/</t>
+  </si>
+  <si>
+    <t>com.interview.companies.amazon</t>
+  </si>
+  <si>
+    <t>Based on Top k Elements</t>
+  </si>
+  <si>
+    <t>SearchSuggestionSystem</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-suggestions-system/</t>
+  </si>
+  <si>
+    <t>Based on PQ and String</t>
+  </si>
+  <si>
+    <t>OptimalUtilization</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/373202</t>
+  </si>
+  <si>
+    <t>Based on TwoSumLessThanK</t>
+  </si>
+  <si>
+    <t>MinCostToConnectRope</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/344677</t>
+  </si>
+  <si>
+    <t>Based on Top K HEAP proble</t>
+  </si>
+  <si>
+    <t>SpiralMatrix</t>
+  </si>
+  <si>
+    <t>SubStringSizeKWithKDistimctChars</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix-ii/</t>
+  </si>
+  <si>
+    <t>Basic Matrix Manipulation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/370112</t>
+  </si>
+  <si>
+    <t>Almost same as SubArrayWithKDiffIntegers</t>
+  </si>
+  <si>
+    <t>MostCommonWord</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-common-word/</t>
+  </si>
+  <si>
+    <t>Based on Frequency</t>
+  </si>
+  <si>
+    <t>PrisonCellAfterNDays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/prison-cells-after-n-days/</t>
+  </si>
+  <si>
+    <t>Use of Modulous to prevent same job to execute</t>
+  </si>
+  <si>
+    <t>WaterContainer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>Simple two Pointer approach</t>
+  </si>
+  <si>
+    <t>LongestStringWithout3ConsecutiveChar</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/330356</t>
+  </si>
+  <si>
+    <t>Same as ReOrganizeString</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>NumWithEqualDigitSum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/365872/</t>
+  </si>
+  <si>
+    <t>com.interview.companies.MSFT</t>
+  </si>
+  <si>
+    <t>IsPalindromePossible</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/351783/</t>
+  </si>
+  <si>
+    <t>Link contains different, solving just subset of it..</t>
+  </si>
+  <si>
+    <t>MinDeletionEachLetterUnique</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/398035/</t>
+  </si>
+  <si>
+    <t>Compute by Frequency then Use HashSet</t>
+  </si>
+  <si>
+    <t>StringWithout3ConseLetters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/398039/</t>
+  </si>
+  <si>
+    <t>Easy String problem</t>
+  </si>
+  <si>
+    <t>LongestSemiAlteringString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/398037/</t>
+  </si>
+  <si>
+    <t>Based on Sliding Window Technique</t>
+  </si>
+  <si>
+    <t>MergeSortCountingInversion</t>
+  </si>
+  <si>
+    <t>TinuURL</t>
+  </si>
+  <si>
+    <t>NumbersSmallerThanCurrent</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number/</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsap_2.leetcode.contests.contest178</t>
+  </si>
+  <si>
+    <t>Based on PeakIndexMountainArray</t>
+  </si>
+  <si>
+    <t>SnapshotArray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/snapshot-array/</t>
+  </si>
+  <si>
+    <t>Use of TreeMap with List</t>
+  </si>
+  <si>
+    <t>FindAllAnagramInString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/</t>
+  </si>
+  <si>
+    <t>Tricky implementation of SlidingWindow</t>
+  </si>
+  <si>
+    <t>DesignUnderGroundSystem</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsap_2.leetcode.contests.contest182</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-underground-system/</t>
+  </si>
+  <si>
+    <t>Use of HashMap in designing system.</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>GroupShiftString</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsap_2.leetcode.strings</t>
+  </si>
+  <si>
+    <t>https://www.programcreek.com/2014/05/leetcode-group-shifted-strings-java/</t>
+  </si>
+  <si>
+    <t>Shift each character of String</t>
+  </si>
+  <si>
+    <t>From LeetCode</t>
+  </si>
+  <si>
+    <t>StepsToReduce</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-steps-to-reduce-a-number-in-binary-representation-to-one/</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsap_2.leetcode.contests.contest183</t>
+  </si>
+  <si>
+    <t>Operating on bits to reduce numbers.</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>ContiguousArray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/challenge/card/30-day-leetcoding-challenge/529/week-2/3298/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.thirtydayschallenge</t>
+  </si>
+  <si>
+    <t>Use of Prefix sum Standard logic</t>
+  </si>
+  <si>
+    <t>InsertDeleteGetRand</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-delete-getrandom-o1/</t>
+  </si>
+  <si>
+    <t>Use of HashSet + List Mix</t>
   </si>
 </sst>
 </file>
@@ -3055,17 +3415,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.7265625" customWidth="1"/>
     <col min="2" max="2" width="41.7265625" customWidth="1"/>
-    <col min="3" max="3" width="59.6328125" customWidth="1"/>
+    <col min="3" max="3" width="66.54296875" customWidth="1"/>
     <col min="5" max="5" width="70.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3088,7 +3448,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3501,10 +3861,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>950</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>81</v>
@@ -3513,15 +3873,15 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>81</v>
@@ -3530,15 +3890,15 @@
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>81</v>
@@ -3547,7 +3907,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -3556,493 +3916,493 @@
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
         <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
         <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
         <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>108</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D38" t="s">
         <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
         <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>119</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
         <v>122</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
         <v>125</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
         <v>130</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
         <v>138</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
         <v>144</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>149</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
         <v>151</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>155</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
         <v>160</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
         <v>169</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
         <v>135</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
         <v>146</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>804</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>806</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>164</v>
+      <c r="B64" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>808</v>
-      </c>
-      <c r="B65" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -4050,351 +4410,443 @@
         <v>180</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>189</v>
+      <c r="A69" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
-        <v>810</v>
+      <c r="A71" t="s">
+        <v>194</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>809</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>233</v>
+        <v>810</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>174</v>
+        <v>811</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>234</v>
+        <v>812</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>811</v>
+      <c r="A76" s="17" t="s">
+        <v>805</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>812</v>
+        <v>163</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>813</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>814</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="9" t="s">
-        <v>204</v>
-      </c>
+      <c r="A78" t="s">
+        <v>959</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="17"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="17"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>205</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" t="s">
-        <v>207</v>
-      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" t="s">
-        <v>210</v>
-      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>217</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
-        <v>219</v>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>223</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>228</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="C94" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
         <v>230</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" t="s">
-        <v>231</v>
+    </row>
+    <row r="100" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="9" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>967</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="9" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>977</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -4446,45 +4898,395 @@
     <hyperlink ref="B53" r:id="rId45"/>
     <hyperlink ref="B54" r:id="rId46"/>
     <hyperlink ref="B63" r:id="rId47"/>
-    <hyperlink ref="B64" r:id="rId48"/>
+    <hyperlink ref="B76" r:id="rId48"/>
     <hyperlink ref="B55" r:id="rId49"/>
     <hyperlink ref="B56" r:id="rId50"/>
     <hyperlink ref="B57" r:id="rId51"/>
-    <hyperlink ref="B66" r:id="rId52"/>
-    <hyperlink ref="B67" r:id="rId53"/>
-    <hyperlink ref="B68" r:id="rId54"/>
-    <hyperlink ref="B70" r:id="rId55"/>
-    <hyperlink ref="B71" r:id="rId56"/>
-    <hyperlink ref="B72" r:id="rId57"/>
-    <hyperlink ref="B73" r:id="rId58"/>
-    <hyperlink ref="B74" r:id="rId59"/>
-    <hyperlink ref="B75" r:id="rId60"/>
-    <hyperlink ref="B89" r:id="rId61"/>
-    <hyperlink ref="B88" r:id="rId62"/>
-    <hyperlink ref="B87" r:id="rId63"/>
-    <hyperlink ref="B86" r:id="rId64"/>
-    <hyperlink ref="B85" r:id="rId65"/>
-    <hyperlink ref="B84" r:id="rId66"/>
-    <hyperlink ref="B83" r:id="rId67"/>
-    <hyperlink ref="B82" r:id="rId68"/>
-    <hyperlink ref="B81" r:id="rId69"/>
+    <hyperlink ref="B65" r:id="rId52"/>
+    <hyperlink ref="B66" r:id="rId53"/>
+    <hyperlink ref="B67" r:id="rId54"/>
+    <hyperlink ref="B69" r:id="rId55"/>
+    <hyperlink ref="B70" r:id="rId56"/>
+    <hyperlink ref="B71" r:id="rId57"/>
+    <hyperlink ref="B72" r:id="rId58"/>
+    <hyperlink ref="B73" r:id="rId59"/>
+    <hyperlink ref="B74" r:id="rId60"/>
+    <hyperlink ref="B94" r:id="rId61"/>
+    <hyperlink ref="B93" r:id="rId62"/>
+    <hyperlink ref="B92" r:id="rId63"/>
+    <hyperlink ref="B91" r:id="rId64"/>
+    <hyperlink ref="B90" r:id="rId65"/>
+    <hyperlink ref="B89" r:id="rId66"/>
+    <hyperlink ref="B88" r:id="rId67"/>
+    <hyperlink ref="B87" r:id="rId68"/>
+    <hyperlink ref="B86" r:id="rId69"/>
+    <hyperlink ref="B77" r:id="rId70"/>
+    <hyperlink ref="B101" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId70"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>469</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>480</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>659</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>661</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>533</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>663</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B23" r:id="rId5"/>
+    <hyperlink ref="B24" r:id="rId6"/>
+    <hyperlink ref="B25" r:id="rId7"/>
+    <hyperlink ref="B26" r:id="rId8"/>
+    <hyperlink ref="B27" r:id="rId9"/>
+    <hyperlink ref="B28" r:id="rId10"/>
+    <hyperlink ref="B29" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
     <col min="2" max="2" width="30.1796875" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
@@ -4510,228 +5312,279 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>753</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>756</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>759</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>762</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>764</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>767</v>
+        <v>951</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>768</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>771</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>773</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>774</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>776</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>777</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>779</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>332</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>342</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>343</v>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>956</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>962</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>981</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -4749,23 +5602,25 @@
     <hyperlink ref="B13" r:id="rId11"/>
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
     <col min="2" max="2" width="32.81640625" customWidth="1"/>
     <col min="3" max="3" width="30.08984375" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
@@ -4791,112 +5646,402 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>684</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>688</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>691</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>733</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>903</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>907</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>910</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>913</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>916</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>922</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>925</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>734</v>
+        <v>928</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>736</v>
+        <v>929</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>702</v>
+        <v>905</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>735</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>931</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>733</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>780</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>782</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>784</v>
-      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>891</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="E24" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>893</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>935</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>938</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>941</v>
+      </c>
+      <c r="B36" t="s">
+        <v>942</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="17"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4904,11 +6049,98 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3" display="https://www.interviewbit.com/problems/boundary-traversal-of-binary-tree/"/>
     <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B16" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6"/>
+    <hyperlink ref="B22" r:id="rId5"/>
+    <hyperlink ref="B23" r:id="rId6"/>
+    <hyperlink ref="B24" r:id="rId7"/>
+    <hyperlink ref="B25" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
+    <hyperlink ref="B10" r:id="rId11"/>
+    <hyperlink ref="B11" r:id="rId12"/>
+    <hyperlink ref="B12" r:id="rId13"/>
+    <hyperlink ref="B13" r:id="rId14"/>
+    <hyperlink ref="B14" r:id="rId15"/>
+    <hyperlink ref="B15" r:id="rId16"/>
+    <hyperlink ref="B16" r:id="rId17"/>
+    <hyperlink ref="B17" r:id="rId18"/>
+    <hyperlink ref="C17" r:id="rId19"/>
+    <hyperlink ref="B34" r:id="rId20"/>
+    <hyperlink ref="B35" r:id="rId21"/>
+    <hyperlink ref="B37" r:id="rId22"/>
+    <hyperlink ref="B38" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4916,7 +6148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4954,18 +6186,18 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -4973,101 +6205,101 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>240</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>243</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" t="s">
         <v>247</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>249</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>252</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>254</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -5075,223 +6307,223 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>258</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>261</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>264</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>267</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>270</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
         <v>273</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>326</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>288</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>275</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>277</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>280</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
         <v>282</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
         <v>285</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5324,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5365,279 +6597,296 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>291</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>295</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" t="s">
         <v>298</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>300</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>306</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>309</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>312</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>316</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>318</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>321</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>323</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>332</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>338</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>342</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>343</v>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>952</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -5658,9 +6907,10 @@
     <hyperlink ref="B19" r:id="rId14"/>
     <hyperlink ref="C20" r:id="rId15"/>
     <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -5669,7 +6919,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5699,182 +6949,199 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>628</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>632</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>635</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>638</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>641</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>643</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>648</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>650</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>739</v>
-      </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>739</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>741</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>742</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>744</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -5891,9 +7158,10 @@
     <hyperlink ref="B15" r:id="rId10"/>
     <hyperlink ref="B16" r:id="rId11"/>
     <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -5940,143 +7208,143 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>346</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>349</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>352</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>355</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>358</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>361</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>364</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>367</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -6086,19 +7354,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>680</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -6122,8 +7390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6153,18 +7421,18 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -6172,104 +7440,104 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>702</v>
-      </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>728</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>708</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>711</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>800</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>802</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -6286,36 +7554,36 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>712</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>714</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>717</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -6324,53 +7592,53 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>718</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>720</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>722</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
         <v>723</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>724</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>726</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -6385,101 +7653,101 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>729</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>731</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>786</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
         <v>788</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>790</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
         <v>792</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>795</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
         <v>797</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -6508,10 +7776,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="C65" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6525,34 +7793,34 @@
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -6581,109 +7849,109 @@
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" t="s">
         <v>376</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" t="s">
         <v>402</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>403</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" t="s">
         <v>406</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>407</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>416</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -6716,245 +7984,245 @@
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
         <v>392</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
         <v>397</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>398</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
         <v>400</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
         <v>410</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
         <v>413</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
         <v>419</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
         <v>421</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B36" t="s">
+        <v>423</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
         <v>424</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>427</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" t="s">
         <v>329</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>330</v>
-      </c>
-      <c r="E39" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
         <v>652</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>828</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
         <v>831</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>832</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>835</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -6975,283 +8243,283 @@
     </row>
     <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>574</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>575</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
         <v>577</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>578</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>580</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>581</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
         <v>583</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>587</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>589</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>584</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
         <v>585</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>589</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
         <v>591</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>592</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="C57" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
         <v>594</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>595</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
         <v>597</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>598</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
         <v>600</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>393</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>836</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
         <v>838</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>839</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
         <v>841</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B73" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D73" t="s">
         <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>844</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
         <v>847</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>853</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>851</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>836</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -7262,19 +8530,140 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>854</v>
+        <v>870</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>834</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>855</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>868</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>872</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>875</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>879</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -7310,10 +8699,15 @@
     <hyperlink ref="B42" r:id="rId29"/>
     <hyperlink ref="B61" r:id="rId30"/>
     <hyperlink ref="B62" r:id="rId31"/>
-    <hyperlink ref="B84" r:id="rId32"/>
+    <hyperlink ref="B83" r:id="rId32"/>
+    <hyperlink ref="B84" r:id="rId33"/>
+    <hyperlink ref="B86" r:id="rId34"/>
+    <hyperlink ref="B87" r:id="rId35"/>
+    <hyperlink ref="B97" r:id="rId36" display="https://leetcode.com/problems/house-robber/"/>
+    <hyperlink ref="B100" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -7352,23 +8746,23 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -7376,13 +8770,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>270</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -7390,13 +8784,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -7404,325 +8798,325 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>435</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>438</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>440</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>443</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>451</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>454</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>456</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>460</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>466</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>474</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>479</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>489</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>491</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>494</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>500</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
         <v>508</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
         <v>511</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>513</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
         <v>521</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -7731,646 +9125,646 @@
     </row>
     <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
         <v>446</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>449</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
         <v>463</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
         <v>476</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>495</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
         <v>497</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
         <v>502</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>503</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
         <v>505</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>516</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
         <v>518</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>469</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
         <v>471</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>480</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>482</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>483</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>485</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
         <v>488</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>526</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
         <v>528</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>530</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
         <v>532</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>533</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
         <v>535</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>536</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
         <v>538</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>539</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
         <v>541</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>542</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
         <v>544</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>545</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
         <v>547</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
         <v>552</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>555</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
         <v>557</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>558</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>560</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
         <v>562</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>563</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
         <v>565</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>569</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
         <v>571</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>601</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
         <v>604</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>605</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
         <v>607</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>608</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
         <v>610</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>619</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
         <v>621</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>622</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
         <v>624</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>548</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
         <v>550</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>566</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
         <v>568</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>611</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
         <v>613</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>614</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
         <v>617</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>745</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
         <v>748</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
-        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -8439,19 +9833,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="40.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -8473,250 +9866,31 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>655</v>
+        <v>972</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>440</v>
+        <v>973</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>435</v>
+        <v>974</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>656</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>668</v>
-      </c>
-      <c r="B6" t="s">
-        <v>669</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>671</v>
-      </c>
-      <c r="B7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>470</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>481</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>660</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>662</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>534</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>537</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>664</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>675</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>677</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B23" r:id="rId5"/>
-    <hyperlink ref="B24" r:id="rId6"/>
-    <hyperlink ref="B25" r:id="rId7"/>
-    <hyperlink ref="B26" r:id="rId8"/>
-    <hyperlink ref="B27" r:id="rId9"/>
-    <hyperlink ref="B28" r:id="rId10"/>
-    <hyperlink ref="B29" r:id="rId11"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/com/interview/excel/DS problem for interview.xlsx
+++ b/src/com/interview/excel/DS problem for interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="677" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="7250" tabRatio="677" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Arr &amp; Str" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,17 @@
     <sheet name="BinarySearch" sheetId="4" r:id="rId3"/>
     <sheet name="Heap" sheetId="7" r:id="rId4"/>
     <sheet name="LinkedList" sheetId="2" r:id="rId5"/>
-    <sheet name="Backtrack" sheetId="10" r:id="rId6"/>
-    <sheet name="~DP~" sheetId="5" r:id="rId7"/>
-    <sheet name="Tree" sheetId="6" r:id="rId8"/>
-    <sheet name="Bits" sheetId="14" r:id="rId9"/>
-    <sheet name="BFS" sheetId="8" r:id="rId10"/>
+    <sheet name="BFS" sheetId="8" r:id="rId6"/>
+    <sheet name="Tree" sheetId="6" r:id="rId7"/>
+    <sheet name="~DP~" sheetId="5" r:id="rId8"/>
+    <sheet name="Backtrack" sheetId="10" r:id="rId9"/>
+    <sheet name="Bits" sheetId="14" r:id="rId10"/>
     <sheet name="Graph" sheetId="13" r:id="rId11"/>
     <sheet name="Design" sheetId="11" r:id="rId12"/>
     <sheet name="By Companies" sheetId="9" r:id="rId13"/>
-    <sheet name="Errichto" sheetId="12" r:id="rId14"/>
+    <sheet name="Behavioural" sheetId="16" r:id="rId14"/>
+    <sheet name="NickWhite" sheetId="15" r:id="rId15"/>
+    <sheet name="Errichto" sheetId="12" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1194">
   <si>
     <t>Problem Name</t>
   </si>
@@ -1024,9 +1026,6 @@
     <t>Medim</t>
   </si>
   <si>
-    <t>Using Inclusion-Exclusion</t>
-  </si>
-  <si>
     <t>OnlineElection</t>
   </si>
   <si>
@@ -1063,9 +1062,6 @@
     <t>TreeMap : floor : use when &lt;= condition present in comparison</t>
   </si>
   <si>
-    <t>IntersectionOfLinkedLIst</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
   </si>
   <si>
@@ -1084,9 +1080,6 @@
     <t>similar to DuplicateNumbeDetection algo.</t>
   </si>
   <si>
-    <t>MergeSortedList</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
   </si>
   <si>
@@ -1120,9 +1113,6 @@
     <t>Teaches, How to iterate to half of LL</t>
   </si>
   <si>
-    <t>RemoveDuplicateLinkedList</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
   </si>
   <si>
@@ -1807,9 +1797,6 @@
     <t>https://leetcode.com/problems/number-of-dice-rolls-with-target-sum/</t>
   </si>
   <si>
-    <t>CoinChangeTotalWays + one xtra state of dice face</t>
-  </si>
-  <si>
     <t>CombinationSumIV</t>
   </si>
   <si>
@@ -2984,13 +2971,676 @@
   </si>
   <si>
     <t>Use of HashSet + List Mix</t>
+  </si>
+  <si>
+    <t>Using Inclusion-Exclusion, same as Knapsack1</t>
+  </si>
+  <si>
+    <t>CoinChangeMinCoins + one xtra state of dice face</t>
+  </si>
+  <si>
+    <t>ValidParanString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parenthesis-string/</t>
+  </si>
+  <si>
+    <t>ValidParantheses + one xtra operation</t>
+  </si>
+  <si>
+    <t>DistinctSubsequence2Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>com.interview.codechef.ccdsapfoundation_1.DP.GFG</t>
+  </si>
+  <si>
+    <t>S string contains T, similar to LCS</t>
+  </si>
+  <si>
+    <t>BestTimeBuySellStockCoolDown</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/</t>
+  </si>
+  <si>
+    <t>BestTimeBuySellStockTransFee</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/</t>
+  </si>
+  <si>
+    <t>same logic as above</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/battleships-in-a-board/</t>
+  </si>
+  <si>
+    <t>BattleShipInBoard</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>IntersectionTwoLinkedLists</t>
+  </si>
+  <si>
+    <t>MergeSortLinkedList</t>
+  </si>
+  <si>
+    <t>RemoveDuplicatesSortedList</t>
+  </si>
+  <si>
+    <t>MeetingRoomII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-ii/</t>
+  </si>
+  <si>
+    <t>Already done in Arrays -&gt; MergeIntervals</t>
+  </si>
+  <si>
+    <t>MinFrogCroaking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-frogs-croaking/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.contest185</t>
+  </si>
+  <si>
+    <t>Based on MeetingRoomsII</t>
+  </si>
+  <si>
+    <t>AsteroidCollision</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/asteroid-collision/</t>
+  </si>
+  <si>
+    <t>Use of Stack to Pop the top elements</t>
+  </si>
+  <si>
+    <t>FACEBOOK</t>
+  </si>
+  <si>
+    <t>ValidateBST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>com.interview.companies.fb</t>
+  </si>
+  <si>
+    <t>Using InOrder traversal logic</t>
+  </si>
+  <si>
+    <t>Using InOrder traversal logic(Already in Tree tab)</t>
+  </si>
+  <si>
+    <t>AddStrings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-strings/</t>
+  </si>
+  <si>
+    <t>Addition without BigDecimal or Convert String operation.</t>
+  </si>
+  <si>
+    <t>ReverseVowelsOfString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-vowels-of-a-string/</t>
+  </si>
+  <si>
+    <t>Two-pointer approach</t>
+  </si>
+  <si>
+    <t>LongestCommonPrefix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>Simple String serach problem</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-array-by-parity-ii</t>
+  </si>
+  <si>
+    <t>sort by index</t>
+  </si>
+  <si>
+    <t>SortArrayByParity</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-array-by-parity/</t>
+  </si>
+  <si>
+    <t>SortColors</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/</t>
+  </si>
+  <si>
+    <t>sorting only</t>
+  </si>
+  <si>
+    <t>LargestPerimeterOfTriangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-perimeter-triangle/</t>
+  </si>
+  <si>
+    <t>sorting and searching</t>
+  </si>
+  <si>
+    <t>SearchInSortedRotatedArray</t>
+  </si>
+  <si>
+    <t>ttps://leetcode.com/explore/challenge/card/30-day-leetcoding-challenge/530/week-3/3304/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>See Above formula bar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the rotation partitions the array into two sorted parts. E.g. [3,4,5,0,1,2] = [3,4,5] ++ [0,1,2]. So if you're in the same part as target you're allowed to do standard binary search and if you're not in the same part then simply search that part with target in it.</t>
+    </r>
+  </si>
+  <si>
+    <t>Left Right Tree Navigation</t>
+  </si>
+  <si>
+    <t>Already done in Trees</t>
+  </si>
+  <si>
+    <t>WallsAndGates</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/walls-and-gates/</t>
+  </si>
+  <si>
+    <t>Almost same as WordSearch in BackTracking..</t>
+  </si>
+  <si>
+    <t>GroupedAnagrams</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>Simple hashmap problem</t>
+  </si>
+  <si>
+    <t>MaxAreaOfIsland</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-area-of-island/</t>
+  </si>
+  <si>
+    <t>com.interview.companies.google</t>
+  </si>
+  <si>
+    <t>Based on Problem : NumberOfIsland</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-email-addresses/</t>
+  </si>
+  <si>
+    <t>UniqueEmailAddress</t>
+  </si>
+  <si>
+    <t>Use of String manipulation.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/submissions/detail/306604056/</t>
+  </si>
+  <si>
+    <t>Easy peasy..</t>
+  </si>
+  <si>
+    <t>FloodFill</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flood-fill/</t>
+  </si>
+  <si>
+    <t>BFS like NumberOfIsland and DFS like WallsAndGates</t>
+  </si>
+  <si>
+    <t>FirstUniqueCharInString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-unique-character-in-a-string/</t>
+  </si>
+  <si>
+    <t>use of HashMap</t>
+  </si>
+  <si>
+    <t>AddNumbersII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers-ii/</t>
+  </si>
+  <si>
+    <t>InsertionSortList</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insertion-sort-list/</t>
+  </si>
+  <si>
+    <t>Use of Tail node</t>
+  </si>
+  <si>
+    <t>LinkedListCycleII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>Extension of linked-list-cycle</t>
+  </si>
+  <si>
+    <t>NextGreaterNodeLL</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-node-in-linked-list/</t>
+  </si>
+  <si>
+    <t>Similar to DailyTempreature in Stack</t>
+  </si>
+  <si>
+    <t>OddEvenLinkedList</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-linked-list/</t>
+  </si>
+  <si>
+    <t>Moving two temp pointers to form a LL</t>
+  </si>
+  <si>
+    <t>PartitionLinkedList</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-list/</t>
+  </si>
+  <si>
+    <t>combination of OddEvenLinkedList and RemoveLinkedListElements</t>
+  </si>
+  <si>
+    <t>RemoveDuplicateSortedListII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>almost similar to RemoveLinkedListElements, just having 2 additional pointer prev.next = curr;</t>
+  </si>
+  <si>
+    <t>RemoveNthNodeEndOfLinkedLIst</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>khel of List.size() - N</t>
+  </si>
+  <si>
+    <t>SwapNodesPairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/swap-nodes-in-pairs/</t>
+  </si>
+  <si>
+    <t>swap nodes ad EvenOdd</t>
+  </si>
+  <si>
+    <t>LeftMostColumnAtleastOne</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/featured/card/30-day-leetcoding-challenge/530/week-3/3306/</t>
+  </si>
+  <si>
+    <t>An interactive problem.</t>
+  </si>
+  <si>
+    <t>HandOfStraights</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hand-of-straights/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.nickwhite</t>
+  </si>
+  <si>
+    <t>sorting with TreeMap</t>
+  </si>
+  <si>
+    <t>Already done in Sorting</t>
+  </si>
+  <si>
+    <t>SubarraySumEqualsK</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>Use of HashMap to calculate repeated prefix sum.</t>
+  </si>
+  <si>
+    <t>QueenAttackKing</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/queens-that-can-attack-the-king/</t>
+  </si>
+  <si>
+    <t>Learn Dirs array to traverse in 8 directions.</t>
+  </si>
+  <si>
+    <t>SurroundedRegions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/surrounded-regions/</t>
+  </si>
+  <si>
+    <t>Plain BFS approach to replace DFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-town-judge/</t>
+  </si>
+  <si>
+    <t>Based on Directed Graph</t>
+  </si>
+  <si>
+    <t>FindTownJudge</t>
+  </si>
+  <si>
+    <t>Traverse in 4 direction using Dirs array</t>
+  </si>
+  <si>
+    <t>BitAndInRange</t>
+  </si>
+  <si>
+    <t>WordLadder</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-ladder/</t>
+  </si>
+  <si>
+    <t>Classic N-way search BFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-word-in-dictionary/</t>
+  </si>
+  <si>
+    <t>sorting + hasmap</t>
+  </si>
+  <si>
+    <t>ReshapeMatrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reshape-the-matrix/</t>
+  </si>
+  <si>
+    <t>Similar to Transpose of Array.</t>
+  </si>
+  <si>
+    <t>PalindromicPermutation</t>
+  </si>
+  <si>
+    <t>Palindrome logic</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/articles/palindrome-permutation/</t>
+  </si>
+  <si>
+    <t>MaximumPoints</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.contest186</t>
+  </si>
+  <si>
+    <t>Use of PrefixSum to choose Combination of elements from both ends.</t>
+  </si>
+  <si>
+    <t>Random HashMap Based</t>
+  </si>
+  <si>
+    <t>DiagonalTraverseII</t>
+  </si>
+  <si>
+    <t>MinTimeDifference</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-time-difference/</t>
+  </si>
+  <si>
+    <t>OpenTheLOck</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/open-the-lock/</t>
+  </si>
+  <si>
+    <t>almost same as WordLadder</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-186/problems/diagonal-traverse-ii/</t>
+  </si>
+  <si>
+    <t>Array traversing</t>
+  </si>
+  <si>
+    <t>MinRemoveValidParan</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/</t>
+  </si>
+  <si>
+    <t>Use of Stack + HashSet to remember indices</t>
+  </si>
+  <si>
+    <t>PlusOne</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/plus-one/</t>
+  </si>
+  <si>
+    <t>GroupShiftStrings</t>
+  </si>
+  <si>
+    <t>Grouping string acc to diff.</t>
+  </si>
+  <si>
+    <t>FractionToRecurringDecimal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fraction-to-recurring-decimal/</t>
+  </si>
+  <si>
+    <t>21/ 37 test case passed</t>
+  </si>
+  <si>
+    <t>VerifyingAlienDictionary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/verifying-an-alien-dictionary/</t>
+  </si>
+  <si>
+    <t>Mapping Alien chars to Alphabets</t>
+  </si>
+  <si>
+    <t>Already done in BS</t>
+  </si>
+  <si>
+    <t>TRIE</t>
+  </si>
+  <si>
+    <t>StreamOfCharacters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stream-of-characters/</t>
+  </si>
+  <si>
+    <t>Awsome problem to Learn Trie</t>
+  </si>
+  <si>
+    <t>Example of TRIE to Find longest + lexogra string..</t>
+  </si>
+  <si>
+    <t>WordSearchII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search-ii/</t>
+  </si>
+  <si>
+    <t>Implemented it, NO result..</t>
+  </si>
+  <si>
+    <t>Camelcase Matching</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/camelcase-matching/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/camelcase-matching/discuss/270029/JavaC%2B%2BPython-Check-Subsequence-and-Regax</t>
+  </si>
+  <si>
+    <t>Easyq</t>
+  </si>
+  <si>
+    <t>No Need of Trie, bcz only 1 string, can match using Subsequence Logic</t>
+  </si>
+  <si>
+    <t>AddSearchWord</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-and-search-word-data-structure-design/</t>
+  </si>
+  <si>
+    <t>Design TRIE using DFS and BFS</t>
+  </si>
+  <si>
+    <t>PowXN</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/powx-n/</t>
+  </si>
+  <si>
+    <t>Math.pow()</t>
+  </si>
+  <si>
+    <t>RandomPickIndex</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/random-pick-index/</t>
+  </si>
+  <si>
+    <t>Design random number pick with equal probability</t>
+  </si>
+  <si>
+    <t>Design random number pick with equal probability, similar: InsertDeleteGetRand</t>
+  </si>
+  <si>
+    <t>MinimumWindowSubstring</t>
+  </si>
+  <si>
+    <t>Done in Sliding window</t>
+  </si>
+  <si>
+    <t>TaskScheduler</t>
+  </si>
+  <si>
+    <t>Done in Array top K element -&gt; Priority queue</t>
+  </si>
+  <si>
+    <t>https://medium.com/@scarletinked/are-you-the-leader-were-looking-for-interviewing-at-amazon-8301d787815d</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4UWDyJq8jZg</t>
+  </si>
+  <si>
+    <t>Behavioural</t>
+  </si>
+  <si>
+    <t>GaleLakhman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?time_continue=1&amp;v=wCl9kvQGHPI&amp;feature=emb_logo</t>
+  </si>
+  <si>
+    <t>GayleLakhMan</t>
+  </si>
+  <si>
+    <t>BinaryTreeMaxPathSum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>Similar to DiameterBinaryTree</t>
+  </si>
+  <si>
+    <t>FirstUniqueNumber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/challenge/card/30-day-leetcoding-challenge/531/week-4/3313/</t>
+  </si>
+  <si>
+    <t>LRU implementation, did using HashMap + Queue</t>
+  </si>
+  <si>
+    <t>DP question</t>
+  </si>
+  <si>
+    <t>MaximumSubArray</t>
+  </si>
+  <si>
+    <t>CustomSortString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/custom-sort-string/</t>
+  </si>
+  <si>
+    <t>Bucket sort</t>
+  </si>
+  <si>
+    <t>ReadNCharsGivenRead4Func</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/read-n-characters-given-read4/</t>
+  </si>
+  <si>
+    <t>Simple file implementation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3052,6 +3702,48 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF455A64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3104,7 +3796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3134,6 +3826,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3415,10 +4117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3861,7 +4563,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>83</v>
@@ -3916,7 +4618,7 @@
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -4339,7 +5041,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>145</v>
@@ -4356,7 +5058,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>161</v>
@@ -4373,7 +5075,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>174</v>
@@ -4458,7 +5160,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>190</v>
@@ -4475,7 +5177,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>192</v>
@@ -4560,24 +5262,24 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>163</v>
@@ -4594,27 +5296,27 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
         <v>897</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>175</v>
@@ -4623,7 +5325,7 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -4807,46 +5509,256 @@
     </row>
     <row r="100" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>978</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>979</v>
+        <v>973</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>974</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>980</v>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="17"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="17"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="17"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="17"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="17"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="17"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="17"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="17"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="17"/>
+    </row>
+    <row r="117" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="9" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="9" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -4922,27 +5834,32 @@
     <hyperlink ref="B86" r:id="rId69"/>
     <hyperlink ref="B77" r:id="rId70"/>
     <hyperlink ref="B101" r:id="rId71"/>
+    <hyperlink ref="B119" r:id="rId72"/>
+    <hyperlink ref="B121" r:id="rId73"/>
+    <hyperlink ref="B123" r:id="rId74"/>
+    <hyperlink ref="B107" r:id="rId75"/>
+    <hyperlink ref="B124" r:id="rId76"/>
+    <hyperlink ref="B108" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId72"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="40.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4964,260 +5881,46 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>654</v>
+        <v>967</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>439</v>
+        <v>968</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>434</v>
+        <v>969</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>653</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>655</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>667</v>
-      </c>
-      <c r="B6" t="s">
-        <v>668</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>670</v>
-      </c>
-      <c r="B7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>469</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>480</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>659</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>661</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>533</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>536</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>663</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>676</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B23" r:id="rId5"/>
-    <hyperlink ref="B24" r:id="rId6"/>
-    <hyperlink ref="B25" r:id="rId7"/>
-    <hyperlink ref="B26" r:id="rId8"/>
-    <hyperlink ref="B27" r:id="rId9"/>
-    <hyperlink ref="B28" r:id="rId10"/>
-    <hyperlink ref="B29" r:id="rId11"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5252,19 +5955,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>892</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>898</v>
+        <v>893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -5278,10 +5998,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5312,134 +6032,134 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>315</v>
@@ -5448,66 +6168,66 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>315</v>
@@ -5516,15 +6236,15 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>315</v>
@@ -5533,58 +6253,143 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>983</v>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
@@ -5604,25 +6409,27 @@
     <hyperlink ref="B15" r:id="rId13"/>
     <hyperlink ref="B18" r:id="rId14"/>
     <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B24" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.453125" customWidth="1"/>
     <col min="2" max="2" width="32.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
     <col min="5" max="5" width="43.08984375" customWidth="1"/>
   </cols>
@@ -5646,7 +6453,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -5656,430 +6463,1179 @@
       <c r="B3" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>683</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>687</v>
+        <v>677</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>902</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>904</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>905</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>907</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>909</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>910</v>
+      <c r="A10" s="17" t="s">
+        <v>912</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>917</v>
+      <c r="A13" t="s">
+        <v>926</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>905</v>
+        <v>927</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>922</v>
+        <v>1043</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>923</v>
+        <v>1044</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>924</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>925</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>927</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>928</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>930</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>931</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>732</v>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>650</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>908</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>733</v>
+        <v>911</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>735</v>
+        <v>913</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>701</v>
+        <v>900</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>734</v>
+        <v>914</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>780</v>
+        <v>917</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>781</v>
+        <v>918</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>175</v>
+        <v>900</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>782</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>891</v>
+        <v>1055</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>890</v>
+        <v>1056</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>892</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>893</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>894</v>
+      <c r="A25" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1059</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>830</v>
+        <v>900</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>934</v>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>728</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>935</v>
+        <v>886</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
+        <v>885</v>
       </c>
       <c r="E34" t="s">
-        <v>502</v>
+        <v>887</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>938</v>
+        <v>888</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>939</v>
+        <v>889</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>937</v>
+        <v>825</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>940</v>
+        <v>894</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>941</v>
-      </c>
-      <c r="B36" t="s">
-        <v>942</v>
+        <v>1046</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1047</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>937</v>
+        <v>1048</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>943</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>917</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>930</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>933</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>936</v>
+      </c>
+      <c r="B46" t="s">
+        <v>937</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
         <v>944</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
-        <v>947</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="17"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="E64" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1193</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3" display="https://www.interviewbit.com/problems/boundary-traversal-of-binary-tree/"/>
     <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B22" r:id="rId5"/>
-    <hyperlink ref="B23" r:id="rId6"/>
-    <hyperlink ref="B24" r:id="rId7"/>
-    <hyperlink ref="B25" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="B9" r:id="rId10"/>
-    <hyperlink ref="B10" r:id="rId11"/>
-    <hyperlink ref="B11" r:id="rId12"/>
-    <hyperlink ref="B12" r:id="rId13"/>
-    <hyperlink ref="B13" r:id="rId14"/>
-    <hyperlink ref="B14" r:id="rId15"/>
-    <hyperlink ref="B15" r:id="rId16"/>
-    <hyperlink ref="B16" r:id="rId17"/>
-    <hyperlink ref="B17" r:id="rId18"/>
-    <hyperlink ref="C17" r:id="rId19"/>
-    <hyperlink ref="B34" r:id="rId20"/>
-    <hyperlink ref="B35" r:id="rId21"/>
-    <hyperlink ref="B37" r:id="rId22"/>
-    <hyperlink ref="B38" r:id="rId23"/>
+    <hyperlink ref="B32" r:id="rId5"/>
+    <hyperlink ref="B33" r:id="rId6"/>
+    <hyperlink ref="B34" r:id="rId7"/>
+    <hyperlink ref="B35" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="B9" r:id="rId11"/>
+    <hyperlink ref="B21" r:id="rId12"/>
+    <hyperlink ref="B22" r:id="rId13"/>
+    <hyperlink ref="B10" r:id="rId14"/>
+    <hyperlink ref="B23" r:id="rId15"/>
+    <hyperlink ref="B11" r:id="rId16"/>
+    <hyperlink ref="B12" r:id="rId17"/>
+    <hyperlink ref="B13" r:id="rId18"/>
+    <hyperlink ref="C13" r:id="rId19"/>
+    <hyperlink ref="B44" r:id="rId20"/>
+    <hyperlink ref="B45" r:id="rId21"/>
+    <hyperlink ref="B47" r:id="rId22"/>
+    <hyperlink ref="B48" r:id="rId23"/>
+    <hyperlink ref="B57" r:id="rId24"/>
+    <hyperlink ref="B58" r:id="rId25"/>
+    <hyperlink ref="B19" r:id="rId26"/>
+    <hyperlink ref="B20" r:id="rId27"/>
+    <hyperlink ref="B14" r:id="rId28"/>
+    <hyperlink ref="B36" r:id="rId29"/>
+    <hyperlink ref="B37" r:id="rId30"/>
+    <hyperlink ref="B38" r:id="rId31"/>
+    <hyperlink ref="B24" r:id="rId32"/>
+    <hyperlink ref="B62" r:id="rId33"/>
+    <hyperlink ref="B63" r:id="rId34"/>
+    <hyperlink ref="B64" r:id="rId35"/>
+    <hyperlink ref="B65" r:id="rId36"/>
+    <hyperlink ref="B66" r:id="rId37"/>
+    <hyperlink ref="B67" r:id="rId38"/>
+    <hyperlink ref="B68" r:id="rId39"/>
+    <hyperlink ref="C68" r:id="rId40"/>
+    <hyperlink ref="B69" r:id="rId41"/>
+    <hyperlink ref="B74" r:id="rId42"/>
+    <hyperlink ref="B75" r:id="rId43"/>
+    <hyperlink ref="B76" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="97.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="56.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6110,18 +7666,18 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -6129,10 +7685,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -6146,10 +7702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6253,7 +7809,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>248</v>
@@ -6287,7 +7843,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>253</v>
@@ -6300,6 +7856,20 @@
       </c>
       <c r="E10" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -6443,7 +8013,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>274</v>
@@ -6460,7 +8030,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>276</v>
@@ -6494,7 +8064,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>281</v>
@@ -6524,6 +8094,57 @@
       </c>
       <c r="E26" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -6548,18 +8169,20 @@
     <hyperlink ref="B25" r:id="rId18"/>
     <hyperlink ref="B26" r:id="rId19"/>
     <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B27" r:id="rId21"/>
+    <hyperlink ref="B29" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6607,7 +8230,7 @@
       <c r="B4" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D4" t="s">
@@ -6624,7 +8247,7 @@
       <c r="B5" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D5" t="s">
@@ -6641,7 +8264,7 @@
       <c r="B6" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D6" t="s">
@@ -6653,12 +8276,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D7" t="s">
@@ -6675,7 +8298,7 @@
       <c r="B8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D8" t="s">
@@ -6687,12 +8310,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D9" t="s">
@@ -6709,7 +8332,7 @@
       <c r="B10" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D10" t="s">
@@ -6726,7 +8349,7 @@
       <c r="B11" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D11" t="s">
@@ -6743,7 +8366,7 @@
       <c r="B14" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D14" t="s">
@@ -6755,12 +8378,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D15" t="s">
@@ -6777,7 +8400,7 @@
       <c r="B16" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D16" t="s">
@@ -6794,7 +8417,7 @@
       <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D17" t="s">
@@ -6806,87 +8429,138 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>331</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>337</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>341</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>954</v>
+        <v>948</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>949</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>955</v>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A24" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -6908,18 +8582,19 @@
     <hyperlink ref="C20" r:id="rId15"/>
     <hyperlink ref="B21" r:id="rId16"/>
     <hyperlink ref="B23" r:id="rId17"/>
+    <hyperlink ref="B26" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6949,199 +8624,252 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>626</v>
-      </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>645</v>
+        <v>902</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>646</v>
+        <v>903</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>647</v>
+        <v>900</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>648</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>649</v>
+        <v>999</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>907</v>
+        <v>1002</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>908</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>905</v>
+        <v>1004</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>909</v>
-      </c>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>731</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>734</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>736</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>737</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>739</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>742</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>744</v>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>636</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -7151,26 +8879,27 @@
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="C14" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="B11" r:id="rId13"/>
+    <hyperlink ref="B23" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B20" r:id="rId8"/>
+    <hyperlink ref="C20" r:id="rId9"/>
+    <hyperlink ref="B21" r:id="rId10"/>
+    <hyperlink ref="B22" r:id="rId11"/>
+    <hyperlink ref="C22" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7212,139 +8941,139 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>344</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>360</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -7354,19 +9083,172 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>679</v>
+        <v>673</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>674</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>680</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -7380,26 +9262,36 @@
     <hyperlink ref="B11" r:id="rId7"/>
     <hyperlink ref="B12" r:id="rId8"/>
     <hyperlink ref="B22" r:id="rId9"/>
+    <hyperlink ref="B23" r:id="rId10"/>
+    <hyperlink ref="B24" r:id="rId11"/>
+    <hyperlink ref="B25" r:id="rId12"/>
+    <hyperlink ref="B26" r:id="rId13"/>
+    <hyperlink ref="B27" r:id="rId14"/>
+    <hyperlink ref="B28" r:id="rId15"/>
+    <hyperlink ref="B29" r:id="rId16"/>
+    <hyperlink ref="B30" r:id="rId17"/>
+    <hyperlink ref="B31" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="64.6328125" customWidth="1"/>
-    <col min="5" max="5" width="68.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -7421,353 +9313,355 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>695</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>649</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>697</v>
+        <v>435</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>698</v>
+        <v>430</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>699</v>
+        <v>473</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>701</v>
+        <v>430</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>702</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>703</v>
+        <v>662</v>
+      </c>
+      <c r="B7" t="s">
+        <v>663</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>701</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>705</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>726</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>727</v>
+        <v>665</v>
+      </c>
+      <c r="B8" t="s">
+        <v>667</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>701</v>
+        <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>728</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>706</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>701</v>
+      <c r="A9" s="17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>900</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>709</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>800</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="10"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="10"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>712</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>715</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>718</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>722</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>724</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C22" s="4"/>
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>729</v>
+        <v>465</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>701</v>
+        <v>466</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>430</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>731</v>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>654</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>786</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>701</v>
+        <v>656</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>598</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>788</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>790</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>789</v>
+        <v>529</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>598</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>792</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>793</v>
+        <v>532</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>701</v>
+        <v>657</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>598</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>792</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>795</v>
+        <v>658</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>701</v>
+        <v>659</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>660</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>797</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>798</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>701</v>
+        <v>669</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>666</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>799</v>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>994</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C33" t="s">
+        <v>995</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4" display="https://leetcode.com/problems/beautiful-arrangement/"/>
-    <hyperlink ref="B15" r:id="rId5"/>
-    <hyperlink ref="B16" r:id="rId6"/>
-    <hyperlink ref="B18" r:id="rId7"/>
-    <hyperlink ref="B19" r:id="rId8"/>
-    <hyperlink ref="B20" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="B23" r:id="rId11"/>
-    <hyperlink ref="C26" r:id="rId12"/>
-    <hyperlink ref="B26" r:id="rId13"/>
-    <hyperlink ref="B27" r:id="rId14"/>
-    <hyperlink ref="B28" r:id="rId15"/>
-    <hyperlink ref="B11" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B24" r:id="rId6"/>
+    <hyperlink ref="B25" r:id="rId7"/>
+    <hyperlink ref="B26" r:id="rId8"/>
+    <hyperlink ref="B27" r:id="rId9"/>
+    <hyperlink ref="B28" r:id="rId10"/>
+    <hyperlink ref="B29" r:id="rId11"/>
+    <hyperlink ref="B33" r:id="rId12"/>
+    <hyperlink ref="B34" r:id="rId13"/>
+    <hyperlink ref="B35" r:id="rId14"/>
+    <hyperlink ref="B36" r:id="rId15"/>
+    <hyperlink ref="B37" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -7776,10 +9670,1282 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="49.08984375" customWidth="1"/>
+    <col min="3" max="3" width="52.6328125" customWidth="1"/>
+    <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>808</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>809</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>810</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>495</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>505</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>515</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>650</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>457</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>816</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>511</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>512</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="45" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>479</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>522</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>529</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>532</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>535</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>538</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>541</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>551</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>554</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>556</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>559</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>565</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>596</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>600</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>603</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>614</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>617</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>544</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>562</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>606</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>609</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>740</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B33" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B34" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B19" r:id="rId11"/>
+    <hyperlink ref="B46" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B35" r:id="rId14"/>
+    <hyperlink ref="B21" r:id="rId15"/>
+    <hyperlink ref="B47" r:id="rId16"/>
+    <hyperlink ref="B48" r:id="rId17"/>
+    <hyperlink ref="B49" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B36" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B37" r:id="rId23"/>
+    <hyperlink ref="B38" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25"/>
+    <hyperlink ref="B26" r:id="rId26"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="B39" r:id="rId28"/>
+    <hyperlink ref="B40" r:id="rId29"/>
+    <hyperlink ref="B28" r:id="rId30"/>
+    <hyperlink ref="B52" r:id="rId31"/>
+    <hyperlink ref="B53" r:id="rId32" display="https://leetcode.com/problems/trim-a-binary-search-tree/"/>
+    <hyperlink ref="B54" r:id="rId33"/>
+    <hyperlink ref="B55" r:id="rId34"/>
+    <hyperlink ref="B56" r:id="rId35"/>
+    <hyperlink ref="B57" r:id="rId36"/>
+    <hyperlink ref="B58" r:id="rId37"/>
+    <hyperlink ref="B75" r:id="rId38"/>
+    <hyperlink ref="B59" r:id="rId39"/>
+    <hyperlink ref="B60" r:id="rId40"/>
+    <hyperlink ref="B61" r:id="rId41"/>
+    <hyperlink ref="B62" r:id="rId42"/>
+    <hyperlink ref="B63" r:id="rId43"/>
+    <hyperlink ref="B76" r:id="rId44"/>
+    <hyperlink ref="B64" r:id="rId45"/>
+    <hyperlink ref="B65" r:id="rId46"/>
+    <hyperlink ref="B66" r:id="rId47"/>
+    <hyperlink ref="B67" r:id="rId48"/>
+    <hyperlink ref="B77" r:id="rId49"/>
+    <hyperlink ref="B78" r:id="rId50"/>
+    <hyperlink ref="C78" r:id="rId51"/>
+    <hyperlink ref="B68" r:id="rId52"/>
+    <hyperlink ref="B69" r:id="rId53"/>
+    <hyperlink ref="B70" r:id="rId54"/>
+    <hyperlink ref="B80" r:id="rId55"/>
+    <hyperlink ref="C80" r:id="rId56"/>
+    <hyperlink ref="B41" r:id="rId57"/>
+    <hyperlink ref="B29" r:id="rId58"/>
+    <hyperlink ref="B89" r:id="rId59"/>
+    <hyperlink ref="B90" r:id="rId60"/>
+    <hyperlink ref="B91" r:id="rId61"/>
+    <hyperlink ref="C91" r:id="rId62"/>
+    <hyperlink ref="B92" r:id="rId63"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7793,34 +10959,34 @@
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -7849,109 +11015,109 @@
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>375</v>
-      </c>
-      <c r="B15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -7984,177 +11150,177 @@
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B35" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -8171,58 +11337,58 @@
         <v>329</v>
       </c>
       <c r="E39" t="s">
-        <v>330</v>
+        <v>979</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -8243,49 +11409,49 @@
     </row>
     <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>173</v>
@@ -8294,322 +11460,339 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>591</v>
+        <v>980</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B73" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D73" t="s">
         <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>877</v>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -8617,53 +11800,87 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>889</v>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -8705,26 +11922,29 @@
     <hyperlink ref="B87" r:id="rId35"/>
     <hyperlink ref="B97" r:id="rId36" display="https://leetcode.com/problems/house-robber/"/>
     <hyperlink ref="B100" r:id="rId37"/>
+    <hyperlink ref="B88" r:id="rId38"/>
+    <hyperlink ref="B101" r:id="rId39"/>
+    <hyperlink ref="B102" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="2" width="49.08984375" customWidth="1"/>
-    <col min="3" max="3" width="52.6328125" customWidth="1"/>
-    <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="64.6328125" customWidth="1"/>
+    <col min="5" max="5" width="68.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -8746,1151 +11966,352 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>817</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>269</v>
+      <c r="A6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>695</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>257</v>
+        <v>696</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>272</v>
+      <c r="A7" t="s">
+        <v>697</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>257</v>
+        <v>696</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>433</v>
+        <v>704</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>435</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>795</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>437</v>
+        <v>796</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>438</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>813</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>440</v>
-      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>443</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>814</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>451</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>707</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>453</v>
+        <v>708</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>454</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>455</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>457</v>
+        <v>710</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>456</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>460</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>713</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>465</v>
+        <v>714</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>466</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>815</v>
+        <v>717</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>468</v>
+        <v>716</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>467</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>472</v>
+        <v>719</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>473</v>
+        <v>720</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>474</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>477</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>479</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>489</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>491</v>
-      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>724</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>493</v>
+        <v>725</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>500</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>506</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>507</v>
+        <v>781</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>782</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>508</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>509</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>434</v>
+        <v>785</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>511</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>819</v>
+      <c r="A27" t="s">
+        <v>788</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>512</v>
+        <v>789</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>513</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>519</v>
+        <v>790</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>520</v>
+        <v>791</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>434</v>
+        <v>696</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>521</v>
+        <v>792</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>444</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>461</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>495</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>821</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>503</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>515</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>516</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>469</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>480</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>483</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>486</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>526</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>530</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>533</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>536</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>539</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>542</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>545</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>553</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>555</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>558</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>560</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>563</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>569</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>601</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>605</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>608</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>619</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>622</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>548</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>566</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>611</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>614</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>745</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
-        <v>748</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B12" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B32" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B17" r:id="rId8"/>
-    <hyperlink ref="B33" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
-    <hyperlink ref="B19" r:id="rId11"/>
-    <hyperlink ref="B43" r:id="rId12"/>
-    <hyperlink ref="B20" r:id="rId13"/>
-    <hyperlink ref="B34" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B44" r:id="rId16"/>
-    <hyperlink ref="B45" r:id="rId17"/>
-    <hyperlink ref="B46" r:id="rId18"/>
-    <hyperlink ref="B22" r:id="rId19"/>
-    <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B35" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B36" r:id="rId23"/>
-    <hyperlink ref="B37" r:id="rId24"/>
-    <hyperlink ref="B25" r:id="rId25"/>
-    <hyperlink ref="B26" r:id="rId26"/>
-    <hyperlink ref="B27" r:id="rId27"/>
-    <hyperlink ref="B38" r:id="rId28"/>
-    <hyperlink ref="B39" r:id="rId29"/>
-    <hyperlink ref="B28" r:id="rId30"/>
-    <hyperlink ref="B49" r:id="rId31"/>
-    <hyperlink ref="B50" r:id="rId32" display="https://leetcode.com/problems/trim-a-binary-search-tree/"/>
-    <hyperlink ref="B51" r:id="rId33"/>
-    <hyperlink ref="B52" r:id="rId34"/>
-    <hyperlink ref="B53" r:id="rId35"/>
-    <hyperlink ref="B54" r:id="rId36"/>
-    <hyperlink ref="B55" r:id="rId37"/>
-    <hyperlink ref="B72" r:id="rId38"/>
-    <hyperlink ref="B56" r:id="rId39"/>
-    <hyperlink ref="B57" r:id="rId40"/>
-    <hyperlink ref="B58" r:id="rId41"/>
-    <hyperlink ref="B59" r:id="rId42"/>
-    <hyperlink ref="B60" r:id="rId43"/>
-    <hyperlink ref="B73" r:id="rId44"/>
-    <hyperlink ref="B61" r:id="rId45"/>
-    <hyperlink ref="B62" r:id="rId46"/>
-    <hyperlink ref="B63" r:id="rId47"/>
-    <hyperlink ref="B64" r:id="rId48"/>
-    <hyperlink ref="B74" r:id="rId49"/>
-    <hyperlink ref="B75" r:id="rId50"/>
-    <hyperlink ref="C75" r:id="rId51"/>
-    <hyperlink ref="B65" r:id="rId52"/>
-    <hyperlink ref="B66" r:id="rId53"/>
-    <hyperlink ref="B67" r:id="rId54"/>
-    <hyperlink ref="B77" r:id="rId55"/>
-    <hyperlink ref="C77" r:id="rId56"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>972</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>975</v>
+      <c r="A29" t="s">
+        <v>793</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://leetcode.com/problems/beautiful-arrangement/"/>
+    <hyperlink ref="B15" r:id="rId5"/>
+    <hyperlink ref="B16" r:id="rId6"/>
+    <hyperlink ref="B18" r:id="rId7"/>
+    <hyperlink ref="B19" r:id="rId8"/>
+    <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="B23" r:id="rId11"/>
+    <hyperlink ref="C26" r:id="rId12"/>
+    <hyperlink ref="B26" r:id="rId13"/>
+    <hyperlink ref="B27" r:id="rId14"/>
+    <hyperlink ref="B28" r:id="rId15"/>
+    <hyperlink ref="B11" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/src/com/interview/excel/DS problem for interview.xlsx
+++ b/src/com/interview/excel/DS problem for interview.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1337">
   <si>
     <t>Problem Name</t>
   </si>
@@ -3840,9 +3840,6 @@
     <t>MaxPerformanceOfTeam</t>
   </si>
   <si>
-    <t>Random HashMap Based/Array qut.</t>
-  </si>
-  <si>
     <t>BulbSwitcherIII</t>
   </si>
   <si>
@@ -3880,6 +3877,192 @@
   </si>
   <si>
     <t>GroupAnagrams</t>
+  </si>
+  <si>
+    <t>ProductOfLastKNums</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-the-last-k-numbers/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.contest176</t>
+  </si>
+  <si>
+    <t>last K element retrival design using list..</t>
+  </si>
+  <si>
+    <t>MaxNumOfEvents</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended/</t>
+  </si>
+  <si>
+    <t>PQ to maintain timeline of events..</t>
+  </si>
+  <si>
+    <t>ConstructTargetArray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-target-array-with-multiple-sums/</t>
+  </si>
+  <si>
+    <t>Handling recursive problem using PQ.</t>
+  </si>
+  <si>
+    <t>ConstructPalindromeStrings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-23/problems/construct-k-palindrome-strings/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.biweekly.biweekely23</t>
+  </si>
+  <si>
+    <t>Conrtruct Palindrome Logic</t>
+  </si>
+  <si>
+    <t>ReducingDishes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reducing-dishes/</t>
+  </si>
+  <si>
+    <t>sorting + greedy pick</t>
+  </si>
+  <si>
+    <t>Greedy Based</t>
+  </si>
+  <si>
+    <t>CinemaSeatAllocation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cinema-seat-allocation/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.interview.leetcode.contests.biweekly.biweekely22</t>
+  </si>
+  <si>
+    <t>Proper use of HashMap in place of Arrays.</t>
+  </si>
+  <si>
+    <t>IncreaseDecreaseString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-21/problems/increasing-decreasing-string/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.biweekly.biweekely21</t>
+  </si>
+  <si>
+    <t>Tricky string manipulation</t>
+  </si>
+  <si>
+    <t>LongestZigZagPaths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-21/problems/longest-zigzag-path-in-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Tree with Traversing States.</t>
+  </si>
+  <si>
+    <t>CloneGraph</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/clone-graph/</t>
+  </si>
+  <si>
+    <t>Simple graph cloning.</t>
+  </si>
+  <si>
+    <t>SortByNumOfBits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-20/problems/sort-integers-by-the-number-of-1-bits/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.biweekly.biweekely20</t>
+  </si>
+  <si>
+    <t>Count and sort by num of bits</t>
+  </si>
+  <si>
+    <t>ApplyDiscountNOrders</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/apply-discount-every-n-orders/</t>
+  </si>
+  <si>
+    <t>Easy Mapping using HashMap</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/apply-discount-every-n-orders/discuss/516982/Java-Straight-forward-Store-price-in-Hashmap</t>
+  </si>
+  <si>
+    <t>CountAllValidPickup</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-20/problems/count-all-valid-pickup-and-delivery-options/</t>
+  </si>
+  <si>
+    <t>Number of ways to Pick items : Permutations.</t>
+  </si>
+  <si>
+    <t>ShortestPathInGrid</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.bfs</t>
+  </si>
+  <si>
+    <t>BFS with K items delete..</t>
+  </si>
+  <si>
+    <t>JumpGameIV</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-19/problems/jump-game-iv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.interview.codechef.ccdsap_2.leetcode.bfs</t>
+  </si>
+  <si>
+    <t>Jump in Array using BFS trick..</t>
+  </si>
+  <si>
+    <t>Random HashMap Based</t>
+  </si>
+  <si>
+    <t>RankTransformArray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-18/problems/rank-transform-of-an-array/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.biweekly.biweekely18</t>
+  </si>
+  <si>
+    <t>Array Rank using Map</t>
+  </si>
+  <si>
+    <t>BreakAPalindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/break-a-palindrome/</t>
+  </si>
+  <si>
+    <t>Break Palindrome Lexicographically</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-the-matrix-diagonally/</t>
+  </si>
+  <si>
+    <t>Almost same as DiagonalTraverseII</t>
+  </si>
+  <si>
+    <t>SortMatrixDiagonally</t>
   </si>
 </sst>
 </file>
@@ -4370,15 +4553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
     <col min="2" max="2" width="41.7265625" customWidth="1"/>
     <col min="3" max="3" width="66.54296875" customWidth="1"/>
     <col min="5" max="5" width="70.26953125" bestFit="1" customWidth="1"/>
@@ -4978,7 +5161,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>109</v>
@@ -5029,7 +5212,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>119</v>
@@ -5906,76 +6089,112 @@
         <v>957</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="9" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="9" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>964</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>965</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C117" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="D114" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="17" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="17" t="s">
         <v>1086</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C118" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="17" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="17" t="s">
         <v>1111</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C119" s="17" t="s">
         <v>1113</v>
       </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="17"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="17"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="17"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="17"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="17"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="17"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="17"/>
@@ -5992,68 +6211,32 @@
       <c r="B122" s="3"/>
       <c r="C122" s="17"/>
     </row>
-    <row r="125" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="9" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="17"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="17"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="17"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="17"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="17"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="17"/>
+    </row>
+    <row r="128" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="9" t="s">
         <v>1016</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="17" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="D128" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>1025</v>
+        <v>629</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>1017</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>614</v>
@@ -6062,114 +6245,270 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>337</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C130" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="17" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>1083</v>
-      </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>1084</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C135" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="9" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="9" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="17"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="17"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="17"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="9" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="17" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="17" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="17" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="17" t="s">
+      <c r="B161" s="20" t="s">
         <v>1263</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="C161" s="17" t="s">
         <v>1264</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
         <v>1265</v>
-      </c>
-      <c r="D141" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1266</v>
       </c>
     </row>
   </sheetData>
@@ -6245,30 +6584,38 @@
     <hyperlink ref="B94" r:id="rId69"/>
     <hyperlink ref="B82" r:id="rId70"/>
     <hyperlink ref="B109" r:id="rId71"/>
-    <hyperlink ref="B127" r:id="rId72"/>
-    <hyperlink ref="B129" r:id="rId73"/>
-    <hyperlink ref="B131" r:id="rId74"/>
-    <hyperlink ref="B115" r:id="rId75"/>
-    <hyperlink ref="B132" r:id="rId76"/>
-    <hyperlink ref="B116" r:id="rId77"/>
+    <hyperlink ref="B130" r:id="rId72"/>
+    <hyperlink ref="B132" r:id="rId73"/>
+    <hyperlink ref="B134" r:id="rId74"/>
+    <hyperlink ref="B118" r:id="rId75"/>
+    <hyperlink ref="B135" r:id="rId76"/>
+    <hyperlink ref="B119" r:id="rId77"/>
     <hyperlink ref="B59" r:id="rId78"/>
     <hyperlink ref="C59" r:id="rId79"/>
     <hyperlink ref="B60" r:id="rId80"/>
     <hyperlink ref="B86" r:id="rId81"/>
     <hyperlink ref="B61" r:id="rId82"/>
-    <hyperlink ref="B140" r:id="rId83"/>
+    <hyperlink ref="B160" r:id="rId83"/>
+    <hyperlink ref="B136" r:id="rId84"/>
+    <hyperlink ref="B151" r:id="rId85"/>
+    <hyperlink ref="B111" r:id="rId86"/>
+    <hyperlink ref="B142" r:id="rId87"/>
+    <hyperlink ref="C142" r:id="rId88"/>
+    <hyperlink ref="B143" r:id="rId89"/>
+    <hyperlink ref="B112" r:id="rId90"/>
+    <hyperlink ref="B152" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6323,21 +6670,39 @@
         <v>1099</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1310</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6542,19 +6907,36 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>1271</v>
-      </c>
       <c r="C15" s="17" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>1272</v>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1306</v>
       </c>
     </row>
   </sheetData>
@@ -6575,10 +6957,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6967,6 +7349,23 @@
       </c>
       <c r="E25" t="s">
         <v>1183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1278</v>
       </c>
     </row>
   </sheetData>
@@ -6988,9 +7387,10 @@
     <hyperlink ref="B19" r:id="rId15"/>
     <hyperlink ref="B21" r:id="rId16"/>
     <hyperlink ref="B24" r:id="rId17"/>
+    <hyperlink ref="B28" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -7219,7 +7619,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1035</v>
@@ -9307,10 +9707,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9350,7 +9750,7 @@
       <c r="B3" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="17" t="s">
         <v>614</v>
       </c>
       <c r="D3" t="s">
@@ -9367,7 +9767,7 @@
       <c r="B4" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>619</v>
       </c>
       <c r="D4" t="s">
@@ -9384,7 +9784,7 @@
       <c r="B5" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="17" t="s">
         <v>614</v>
       </c>
       <c r="D5" t="s">
@@ -9401,7 +9801,7 @@
       <c r="B6" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>614</v>
       </c>
       <c r="D6" t="s">
@@ -9418,7 +9818,7 @@
       <c r="B7" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="17" t="s">
         <v>614</v>
       </c>
       <c r="D7" t="s">
@@ -9435,7 +9835,7 @@
       <c r="B8" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>635</v>
       </c>
       <c r="D8" t="s">
@@ -9452,7 +9852,7 @@
       <c r="B9" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>892</v>
       </c>
       <c r="D9" t="s">
@@ -9469,7 +9869,7 @@
       <c r="B10" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D10" t="s">
@@ -9486,7 +9886,7 @@
       <c r="B11" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>996</v>
       </c>
       <c r="D11" t="s">
@@ -9503,7 +9903,7 @@
       <c r="B12" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="17" t="s">
         <v>1253</v>
       </c>
       <c r="D12" t="s">
@@ -9514,8 +9914,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
+      <c r="A13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
@@ -9599,6 +10012,23 @@
       </c>
       <c r="E23" t="s">
         <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>
@@ -9618,9 +10048,11 @@
     <hyperlink ref="B9" r:id="rId13"/>
     <hyperlink ref="B11" r:id="rId14"/>
     <hyperlink ref="B12" r:id="rId15"/>
+    <hyperlink ref="B13" r:id="rId16"/>
+    <hyperlink ref="B28" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -10009,10 +10441,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10289,63 +10721,56 @@
         <v>664</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>986</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>987</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
         <v>987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>1083</v>
@@ -10354,15 +10779,15 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>1118</v>
+        <v>1092</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1119</v>
+        <v>1093</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>1083</v>
@@ -10371,41 +10796,92 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>1120</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>1213</v>
+        <v>1100</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>1215</v>
+        <v>1101</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>1083</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>1216</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C41" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
         <v>1268</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1269</v>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -10421,16 +10897,18 @@
     <hyperlink ref="B27" r:id="rId9"/>
     <hyperlink ref="B28" r:id="rId10"/>
     <hyperlink ref="B29" r:id="rId11"/>
-    <hyperlink ref="B33" r:id="rId12"/>
-    <hyperlink ref="B34" r:id="rId13"/>
-    <hyperlink ref="B35" r:id="rId14"/>
-    <hyperlink ref="B36" r:id="rId15"/>
-    <hyperlink ref="B37" r:id="rId16"/>
-    <hyperlink ref="B38" r:id="rId17"/>
-    <hyperlink ref="B39" r:id="rId18"/>
+    <hyperlink ref="B35" r:id="rId12"/>
+    <hyperlink ref="B36" r:id="rId13"/>
+    <hyperlink ref="B37" r:id="rId14"/>
+    <hyperlink ref="B38" r:id="rId15"/>
+    <hyperlink ref="B39" r:id="rId16"/>
+    <hyperlink ref="B40" r:id="rId17"/>
+    <hyperlink ref="B41" r:id="rId18"/>
+    <hyperlink ref="B42" r:id="rId19"/>
+    <hyperlink ref="B30" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -10438,8 +10916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11491,14 +11969,38 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="17"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
+      <c r="A73" t="s">
+        <v>733</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="17"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1303</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="17"/>
@@ -11586,23 +12088,6 @@
       </c>
       <c r="E84" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>733</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -11751,8 +12236,8 @@
     <hyperlink ref="B68" r:id="rId52"/>
     <hyperlink ref="B69" r:id="rId53"/>
     <hyperlink ref="B70" r:id="rId54"/>
-    <hyperlink ref="B86" r:id="rId55"/>
-    <hyperlink ref="C86" r:id="rId56"/>
+    <hyperlink ref="B73" r:id="rId55"/>
+    <hyperlink ref="C73" r:id="rId56"/>
     <hyperlink ref="B41" r:id="rId57"/>
     <hyperlink ref="B29" r:id="rId58"/>
     <hyperlink ref="B95" r:id="rId59"/>
@@ -11763,9 +12248,10 @@
     <hyperlink ref="B72" r:id="rId64"/>
     <hyperlink ref="B42" r:id="rId65"/>
     <hyperlink ref="C42" r:id="rId66"/>
+    <hyperlink ref="B74" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -11773,8 +12259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12460,6 +12946,23 @@
       </c>
       <c r="E62" t="s">
         <v>828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -12754,9 +13257,10 @@
     <hyperlink ref="B88" r:id="rId38"/>
     <hyperlink ref="B101" r:id="rId39"/>
     <hyperlink ref="B102" r:id="rId40"/>
+    <hyperlink ref="B63" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 

--- a/src/com/interview/excel/DS problem for interview.xlsx
+++ b/src/com/interview/excel/DS problem for interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="7250" tabRatio="677"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="7250" tabRatio="677" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Arr &amp; Str" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1363">
   <si>
     <t>Problem Name</t>
   </si>
@@ -4063,6 +4063,84 @@
   </si>
   <si>
     <t>SortMatrixDiagonally</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/build-an-array-with-stack-operations/</t>
+  </si>
+  <si>
+    <t>BuildArray</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.contest188</t>
+  </si>
+  <si>
+    <t>Simple array implementation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-triplets-that-can-form-two-arrays-of-equal-xor/</t>
+  </si>
+  <si>
+    <t>MatrixSumBlock</t>
+  </si>
+  <si>
+    <t>Trick for Prefix sum on 2D array</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.biweekly.biweekely17</t>
+  </si>
+  <si>
+    <t>SumNodeOfEvenGrandParent</t>
+  </si>
+  <si>
+    <t>Simple Tree Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-17/problems/sum-of-nodes-with-even-valued-grandparent/</t>
+  </si>
+  <si>
+    <t>MinFlipsAOrB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.interview.leetcode.contests.contest171</t>
+  </si>
+  <si>
+    <t>Flip bits and counting</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-flips-to-make-a-or-b-equal-to-c/</t>
+  </si>
+  <si>
+    <t>DecryptString</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-170/problems/decrypt-string-from-alphabet-to-integer-mapping/#</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.contest170</t>
+  </si>
+  <si>
+    <t>Put a lot of Hardwork.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-170/problems/xor-queries-of-a-subarray/</t>
+  </si>
+  <si>
+    <t>XORQueries</t>
+  </si>
+  <si>
+    <t>Solved by me.. :)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/biweekly-contest-17/problems/matrix-block-sum/</t>
+  </si>
+  <si>
+    <t>VideosWatchedByFriends</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-170/problems/get-watched-videos-by-your-friends/</t>
+  </si>
+  <si>
+    <t>Level Traversal using BFS, similar to Graph problem.</t>
   </si>
 </sst>
 </file>
@@ -4231,7 +4309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4272,6 +4350,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4553,10 +4632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6197,19 +6276,52 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="17"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="17"/>
+      <c r="A120" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="17"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="17"/>
+      <c r="A121" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="17"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="17"/>
+      <c r="A122" s="17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="17"/>
@@ -6396,7 +6508,7 @@
       <c r="B143" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="17" t="s">
         <v>1329</v>
       </c>
       <c r="D143" t="s">
@@ -6407,9 +6519,21 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="17"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="4"/>
+      <c r="A144" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="17"/>
@@ -6484,7 +6608,7 @@
       <c r="B160" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="17" t="s">
         <v>1253</v>
       </c>
       <c r="D160" t="s">
@@ -6496,18 +6620,70 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="17"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="17"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="17"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="17"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="17"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="17"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="17"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="17" t="s">
         <v>1262</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B169" s="20" t="s">
         <v>1263</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C169" s="17" t="s">
         <v>1264</v>
       </c>
-      <c r="D161" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -6604,24 +6780,28 @@
     <hyperlink ref="B143" r:id="rId89"/>
     <hyperlink ref="B112" r:id="rId90"/>
     <hyperlink ref="B152" r:id="rId91"/>
+    <hyperlink ref="B161" r:id="rId92"/>
+    <hyperlink ref="B120" r:id="rId93"/>
+    <hyperlink ref="B144" r:id="rId94" display="https://leetcode.com/contest/weekly-contest-170/problems/decrypt-string-from-alphabet-to-integer-mapping/"/>
+    <hyperlink ref="B122" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId92"/>
+  <pageSetup orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" customWidth="1"/>
     <col min="5" max="5" width="36.26953125" customWidth="1"/>
   </cols>
@@ -6687,13 +6867,46 @@
         <v>1310</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -10441,10 +10654,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10882,6 +11095,23 @@
       </c>
       <c r="E42" t="s">
         <v>1321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1362</v>
       </c>
     </row>
   </sheetData>
@@ -10916,8 +11146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10959,10 +11189,10 @@
       <c r="A5" t="s">
         <v>804</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="17" t="s">
         <v>250</v>
       </c>
       <c r="D5" t="s">
@@ -10973,10 +11203,10 @@
       <c r="A6" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="17" t="s">
         <v>250</v>
       </c>
       <c r="D6" t="s">
@@ -10987,15 +11217,21 @@
       <c r="A7" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="17" t="s">
         <v>250</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -11004,7 +11240,7 @@
       <c r="B10" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D10" t="s">
@@ -11021,7 +11257,7 @@
       <c r="B11" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D11" t="s">
@@ -11038,7 +11274,7 @@
       <c r="B12" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D12" t="s">
@@ -11055,7 +11291,7 @@
       <c r="B13" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D13" t="s">
@@ -11072,7 +11308,7 @@
       <c r="B14" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D14" t="s">
@@ -11089,7 +11325,7 @@
       <c r="B15" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D15" t="s">
@@ -11106,7 +11342,7 @@
       <c r="B16" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D16" t="s">
@@ -11123,7 +11359,7 @@
       <c r="B17" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D17" t="s">
@@ -11140,7 +11376,7 @@
       <c r="B18" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D18" t="s">
@@ -11157,7 +11393,7 @@
       <c r="B19" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D19" t="s">
@@ -11174,7 +11410,7 @@
       <c r="B20" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D20" t="s">
@@ -11191,7 +11427,7 @@
       <c r="B21" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D21" t="s">
@@ -11208,7 +11444,7 @@
       <c r="B22" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D22" t="s">
@@ -11225,7 +11461,7 @@
       <c r="B23" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D23" t="s">
@@ -11242,7 +11478,7 @@
       <c r="B24" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D24" t="s">
@@ -11259,7 +11495,7 @@
       <c r="B25" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D25" t="s">
@@ -11276,7 +11512,7 @@
       <c r="B26" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D26" t="s">
@@ -11293,7 +11529,7 @@
       <c r="B27" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D27" t="s">
@@ -11310,7 +11546,7 @@
       <c r="B28" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D28" t="s">
@@ -11327,7 +11563,7 @@
       <c r="B29" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D29" t="s">
@@ -11353,7 +11589,7 @@
       <c r="B32" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D32" t="s">
@@ -11370,7 +11606,7 @@
       <c r="B33" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D33" t="s">
@@ -11387,7 +11623,7 @@
       <c r="B34" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D34" t="s">
@@ -11404,7 +11640,7 @@
       <c r="B35" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D35" t="s">
@@ -11421,7 +11657,7 @@
       <c r="B36" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D36" t="s">
@@ -11438,7 +11674,7 @@
       <c r="B37" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D37" t="s">
@@ -11455,7 +11691,7 @@
       <c r="B38" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D38" t="s">
@@ -11472,7 +11708,7 @@
       <c r="B39" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D39" t="s">
@@ -11489,7 +11725,7 @@
       <c r="B40" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D40" t="s">
@@ -11506,7 +11742,7 @@
       <c r="B41" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="17" t="s">
         <v>1004</v>
       </c>
       <c r="D41" t="s">
@@ -11545,7 +11781,7 @@
       <c r="B46" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D46" t="s">
@@ -11562,7 +11798,7 @@
       <c r="B47" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D47" t="s">
@@ -11579,7 +11815,7 @@
       <c r="B48" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D48" t="s">
@@ -11596,7 +11832,7 @@
       <c r="B49" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D49" t="s">
@@ -11618,7 +11854,7 @@
       <c r="B52" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D52" t="s">
@@ -11635,7 +11871,7 @@
       <c r="B53" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D53" t="s">
@@ -11652,7 +11888,7 @@
       <c r="B54" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D54" t="s">
@@ -11669,7 +11905,7 @@
       <c r="B55" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D55" t="s">
@@ -11686,7 +11922,7 @@
       <c r="B56" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D56" t="s">
@@ -11703,7 +11939,7 @@
       <c r="B57" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D57" t="s">
@@ -11720,7 +11956,7 @@
       <c r="B58" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D58" t="s">
@@ -11737,7 +11973,7 @@
       <c r="B59" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D59" t="s">
@@ -11754,7 +11990,7 @@
       <c r="B60" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D60" t="s">
@@ -11771,7 +12007,7 @@
       <c r="B61" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D61" t="s">
@@ -11788,7 +12024,7 @@
       <c r="B62" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D62" t="s">
@@ -11805,7 +12041,7 @@
       <c r="B63" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D63" t="s">
@@ -11822,7 +12058,7 @@
       <c r="B64" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D64" t="s">
@@ -11839,7 +12075,7 @@
       <c r="B65" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D65" t="s">
@@ -11856,7 +12092,7 @@
       <c r="B66" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D66" t="s">
@@ -11873,7 +12109,7 @@
       <c r="B67" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D67" t="s">
@@ -11890,7 +12126,7 @@
       <c r="B68" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D68" t="s">
@@ -11907,7 +12143,7 @@
       <c r="B69" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D69" t="s">
@@ -11924,7 +12160,7 @@
       <c r="B70" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D70" t="s">
@@ -11941,7 +12177,7 @@
       <c r="B71" s="20" t="s">
         <v>1171</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="17" t="s">
         <v>1004</v>
       </c>
       <c r="D71" t="s">
@@ -11958,7 +12194,7 @@
       <c r="B72" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="17" t="s">
         <v>966</v>
       </c>
       <c r="D72" t="s">
@@ -11992,7 +12228,7 @@
       <c r="B74" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="17" t="s">
         <v>1299</v>
       </c>
       <c r="D74" t="s">
@@ -12003,9 +12239,21 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="17"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="17"/>
@@ -12029,7 +12277,7 @@
       <c r="B81" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D81" t="s">
@@ -12046,7 +12294,7 @@
       <c r="B82" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D82" t="s">
@@ -12063,7 +12311,7 @@
       <c r="B83" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="17" t="s">
         <v>591</v>
       </c>
       <c r="D83" t="s">
@@ -12249,9 +12497,10 @@
     <hyperlink ref="B42" r:id="rId65"/>
     <hyperlink ref="C42" r:id="rId66"/>
     <hyperlink ref="B74" r:id="rId67"/>
+    <hyperlink ref="B75" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
 
@@ -12259,8 +12508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/com/interview/excel/DS problem for interview.xlsx
+++ b/src/com/interview/excel/DS problem for interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="7250" tabRatio="677" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="7250" tabRatio="677" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Arr &amp; Str" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="By Companies" sheetId="9" r:id="rId13"/>
     <sheet name="Behavioural" sheetId="16" r:id="rId14"/>
     <sheet name="NickWhite" sheetId="15" r:id="rId15"/>
-    <sheet name="Errichto" sheetId="12" r:id="rId16"/>
+    <sheet name="Maths" sheetId="12" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1540">
   <si>
     <t>Problem Name</t>
   </si>
@@ -3693,9 +3693,6 @@
     <t>https://www.youtube.com/watch?v=V4hm80xAJmM</t>
   </si>
   <si>
-    <t>New Strategy using Union-Find or DisJoint Set</t>
-  </si>
-  <si>
     <t>MinCostAddNewNodes</t>
   </si>
   <si>
@@ -3711,9 +3708,6 @@
     <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</t>
   </si>
   <si>
-    <t>Used both BFS and Union-Find approach.</t>
-  </si>
-  <si>
     <t>LongestContinuousSubArray</t>
   </si>
   <si>
@@ -4231,13 +4225,483 @@
   </si>
   <si>
     <t>Almost same as MaxHistogram</t>
+  </si>
+  <si>
+    <t>TwoSumBinaryTree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/640705/facebook-phone-two-sum-in-binary-tree</t>
+  </si>
+  <si>
+    <t>Given Root of Binary Tree, and K Find 2 Nodes whose sum equal to K</t>
+  </si>
+  <si>
+    <t>Using BFS and Maintaining hasmap at each level</t>
+  </si>
+  <si>
+    <t>Online Stock Span</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/online-stock-span/</t>
+  </si>
+  <si>
+    <t>Same monotonic stack as MaxHIstogram</t>
+  </si>
+  <si>
+    <t>Medium Tree BFS</t>
+  </si>
+  <si>
+    <t>NodesDistanceKBinaryTree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>using BFS traversing in 3 directions Left,Right, Parent</t>
+  </si>
+  <si>
+    <t>Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/non-overlapping-intervals/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/submissions/detail/342152125/</t>
+  </si>
+  <si>
+    <t>Just sort by Intervals end first.</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/discuss/79557/How-we-handle-this-question-on-interview-Thinking-process-%2B-DP-solution</t>
+  </si>
+  <si>
+    <t>DP solution for bits problem</t>
+  </si>
+  <si>
+    <t>CourseSchedule</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/</t>
+  </si>
+  <si>
+    <t>Findind Cycle in Directed graph: Topological Sort</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.graph.directed</t>
+  </si>
+  <si>
+    <t>PacificAtlanticWaterFlow</t>
+  </si>
+  <si>
+    <t>Similar to FloodFill</t>
+  </si>
+  <si>
+    <t>MedianInDataStream</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.heap</t>
+  </si>
+  <si>
+    <t>Mix of Min Queue and Max Queue</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/submissions/detail/341834459/</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>ValidPalindromeIII</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/Dylan-Java-NYC/p/12028253.html</t>
+  </si>
+  <si>
+    <t>TODO………..</t>
+  </si>
+  <si>
+    <t>NestedListWeight</t>
+  </si>
+  <si>
+    <t>https://www.programcreek.com/2014/05/leetcode-nested-list-weight-sum-java/</t>
+  </si>
+  <si>
+    <t>Recursive and BFS approaches..</t>
+  </si>
+  <si>
+    <t>ImplementMagicDict</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-magic-dictionary/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.hashmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashmap Design </t>
+  </si>
+  <si>
+    <t>https://www.programcreek.com/2014/05/leetcode-meeting-rooms-ii-java/</t>
+  </si>
+  <si>
+    <t>Use of PriorityQueue to Manage Intervals</t>
+  </si>
+  <si>
+    <t>Pattern - 5 : Optimal Strategy</t>
+  </si>
+  <si>
+    <t>StoneGame</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp</t>
+  </si>
+  <si>
+    <t>Good qut. On Optimal gaming strategy</t>
+  </si>
+  <si>
+    <t>Reverse-Interview</t>
+  </si>
+  <si>
+    <t>https://github.com/viraptor/reverse-interview</t>
+  </si>
+  <si>
+    <t>UncrossedLines</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/uncrossed-lines/</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>MaxNumOfVowels</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-190/problems/maximum-number-of-vowels-in-a-substring-of-given-length/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.contest190</t>
+  </si>
+  <si>
+    <t>Solved by me..</t>
+  </si>
+  <si>
+    <t>PseudoPalindromicPaths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-190/problems/pseudo-palindromic-paths-in-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Learnt Backtracking Strategy</t>
+  </si>
+  <si>
+    <t>MaxDotProduct</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-190/problems/max-dot-product-of-two-subsequences/</t>
+  </si>
+  <si>
+    <t>ReplaceWords</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/replace-words/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.trie</t>
+  </si>
+  <si>
+    <t>Search in Linear fashion without DFS or BFS</t>
+  </si>
+  <si>
+    <t>MapSumPairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/map-sum-pairs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy </t>
+  </si>
+  <si>
+    <t>Similar to LongestWordInDictionary</t>
+  </si>
+  <si>
+    <t>WordBreak</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-break/</t>
+  </si>
+  <si>
+    <t>Same pattern as CoinChangeMinCoins</t>
+  </si>
+  <si>
+    <t>Try to understand a new BFS approach, finding possible string using BFS</t>
+  </si>
+  <si>
+    <t>ConcatenatedWords</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/concatenated-words/</t>
+  </si>
+  <si>
+    <t>Same as WordBreak</t>
+  </si>
+  <si>
+    <t>Easy hashmap solution</t>
+  </si>
+  <si>
+    <t>PalindromePairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-pairs/</t>
+  </si>
+  <si>
+    <t>HARD</t>
+  </si>
+  <si>
+    <t>Solve by divide in parts</t>
+  </si>
+  <si>
+    <t>GraphBipartite</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-graph-bipartite/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.graph.undirected</t>
+  </si>
+  <si>
+    <t>UnDirected Graph: Based on Graph coloring like FlowerPlanting</t>
+  </si>
+  <si>
+    <t>PossibleBipartition</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/possible-bipartition/</t>
+  </si>
+  <si>
+    <t>same as GraphBipartite</t>
+  </si>
+  <si>
+    <t>PartitionArrayMaxSum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-array-for-maximum-sum/</t>
+  </si>
+  <si>
+    <t>try to understand properly, first DFS : little similar to CoinChangeMinCoins pattern</t>
+  </si>
+  <si>
+    <t>Graph Coloring</t>
+  </si>
+  <si>
+    <t>Union Find</t>
+  </si>
+  <si>
+    <t>RedudantConnectionUnionFind</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.graph.unionfind</t>
+  </si>
+  <si>
+    <t>Using Union-Find Algo as ConnectCityMinCost</t>
+  </si>
+  <si>
+    <t>Same as Above, we are finding disjoint set of cities with Min cost connecting</t>
+  </si>
+  <si>
+    <t>FriendCircles</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/friend-circles/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> com.interview.leetcode.graph.unionfind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Counting number of Disjoint sets</t>
+  </si>
+  <si>
+    <t>Same as FriendCircles, just converting list of nodes into single disjoint set.</t>
+  </si>
+  <si>
+    <t>MostStonesRemoved</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-stones-removed-with-same-row-or-column/</t>
+  </si>
+  <si>
+    <t>Same as FriendCircles</t>
+  </si>
+  <si>
+    <t>SatisfiabilityEquations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/satisfiability-of-equality-equations/</t>
+  </si>
+  <si>
+    <t>Same approach of DisjointSet : FriendCircles</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-valid-parentheses/</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>TODOS</t>
+  </si>
+  <si>
+    <t>AccountsMerge</t>
+  </si>
+  <si>
+    <t>Tricky implementation of Disjoint set</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/accounts-merge/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> com.interview.leetcode.graph.unionfind</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>NumberOfEnclaves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-enclaves/</t>
+  </si>
+  <si>
+    <t>Almost same as FloodFill</t>
+  </si>
+  <si>
+    <t>ClosedIslands</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-closed-islands/</t>
+  </si>
+  <si>
+    <t>Try implementation using DFS; similar concept as NumberOfIslands</t>
+  </si>
+  <si>
+    <t>Topological Sort/Directed Graph</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-iv/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.biweekly.biweekely27</t>
+  </si>
+  <si>
+    <t>CourseScheduleIV</t>
+  </si>
+  <si>
+    <t>CourseScheduleIV_FloydWarshal</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests.biweekly.biweekely28</t>
+  </si>
+  <si>
+    <t>Using Topological sort</t>
+  </si>
+  <si>
+    <t>Using Floyd Warshal algo</t>
+  </si>
+  <si>
+    <t>FindEventualSafeState</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-eventual-safe-states/</t>
+  </si>
+  <si>
+    <t>Almost same as CourseScheduleIV</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/01-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>CourseScheduleII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/</t>
+  </si>
+  <si>
+    <t>Almost same as CourseSchedule</t>
+  </si>
+  <si>
+    <t>NetworkDelayTime</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/network-delay-time/</t>
+  </si>
+  <si>
+    <t>Shortest path of single source: Bellman Ford</t>
+  </si>
+  <si>
+    <t>MaxAreaOfCake</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-191/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts/</t>
+  </si>
+  <si>
+    <t>Greedy and Maths</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests._new_weekely.contest191</t>
+  </si>
+  <si>
+    <t>MinInSortedRotatedArray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/learn/card/binary-search/126/template-ii/949/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.binarysearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4361,6 +4825,37 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4413,7 +4908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4459,6 +4954,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4740,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5280,7 +5781,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>98</v>
@@ -5296,42 +5797,18 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
+      <c r="A35" s="17"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
+      <c r="A36" s="17"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
         <v>102</v>
@@ -5343,275 +5820,239 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>108</v>
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>115</v>
+      <c r="A40" s="30" t="s">
+        <v>1402</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>1403</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1404</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>1259</v>
+        <v>1356</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>118</v>
+        <v>1432</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="30"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="30"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>129</v>
-      </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>1232</v>
+        <v>1257</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>129</v>
@@ -5620,612 +6061,624 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>160</v>
+      <c r="A57" s="17" t="s">
+        <v>1231</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
-        <v>1236</v>
+      <c r="A58" t="s">
+        <v>141</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1178</v>
+        <v>145</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>1180</v>
+        <v>143</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>1181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="17" t="s">
-        <v>1182</v>
+      <c r="A60" t="s">
+        <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1183</v>
+        <v>147</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1184</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>1185</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="17" t="s">
         <v>1234</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="D61" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="17"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="65" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="9" t="s">
-        <v>126</v>
+      <c r="B65" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>1178</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>129</v>
+        <v>1179</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1180</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>780</v>
+      <c r="A67" s="17" t="s">
+        <v>1182</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>1183</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>129</v>
+        <v>1184</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>781</v>
+      <c r="A68" s="17" t="s">
+        <v>1232</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>154</v>
+        <v>1233</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>129</v>
+        <v>975</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>975</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>783</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>177</v>
+      <c r="A69" s="17"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="72" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>179</v>
+        <v>127</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
-        <v>784</v>
+      <c r="A74" t="s">
+        <v>780</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
-        <v>785</v>
+      <c r="A75" t="s">
+        <v>781</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>186</v>
+        <v>783</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>219</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="17" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>786</v>
+      <c r="A80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>787</v>
+        <v>176</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>788</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
-        <v>876</v>
+        <v>785</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>877</v>
+        <v>183</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>873</v>
+        <v>176</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>878</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>935</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>936</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>1220</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
         <v>1221</v>
       </c>
-      <c r="C84" s="17" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="17" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
+      <c r="B92" s="20" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="17" t="s">
         <v>1225</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B93" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="17" t="s">
+      <c r="C93" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" t="s">
         <v>1227</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="17"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="17"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="9" t="s">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="17"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="17" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B94" s="3" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>197</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>201</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>204</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="17" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="17" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>212</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>165</v>
@@ -6234,15 +6687,15 @@
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="17" t="s">
-        <v>1353</v>
+      <c r="A102" t="s">
+        <v>197</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>165</v>
@@ -6251,579 +6704,735 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="17" t="s">
-        <v>1350</v>
+      <c r="A104" t="s">
+        <v>204</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1351</v>
+        <v>203</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="9" t="s">
-        <v>941</v>
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>942</v>
+        <v>216</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>944</v>
+        <v>217</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>943</v>
+        <v>165</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>945</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="9" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>942</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C118" s="17" t="s">
         <v>1271</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
         <v>1272</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="17" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="9" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>952</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>953</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>954</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="17" t="s">
-        <v>1073</v>
+        <v>1281</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1074</v>
+        <v>1282</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>954</v>
+        <v>1283</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
       <c r="E119" t="s">
-        <v>1075</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="9" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>952</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="17" t="s">
         <v>1098</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C127" s="17" t="s">
         <v>1100</v>
       </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="17" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B128" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="17" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
         <v>1327</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="17" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="17" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="17"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="17"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="17"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="17"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="17"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="17"/>
-    </row>
-    <row r="129" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="9" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>1004</v>
+        <v>1341</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1340</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>606</v>
+        <v>1338</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>1005</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" t="s">
-        <v>12</v>
-      </c>
+      <c r="A131" s="17"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="17"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1010</v>
-      </c>
+      <c r="A132" s="17"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="17"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D136" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1091</v>
+      <c r="A133" s="17"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="17"/>
+    </row>
+    <row r="136" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="9" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>1276</v>
+        <v>620</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>1004</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>1273</v>
+        <v>606</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="9" t="s">
-        <v>1312</v>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>1297</v>
+      <c r="A143" s="17" t="s">
+        <v>618</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>1300</v>
+        <v>1090</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>1070</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>1299</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
-        <v>1313</v>
+        <v>1273</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1314</v>
+        <v>1274</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>1315</v>
+        <v>1271</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="17" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="17"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="4"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="17"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="4"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="9" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>1108</v>
+        <v>1311</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>1312</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>1100</v>
+        <v>1313</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>1109</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="17"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="17"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C159" s="17" t="s">
         <v>1279</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
         <v>1280</v>
       </c>
-      <c r="C152" s="17" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D152" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="17" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B153" s="3" t="s">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="17" t="s">
         <v>1320</v>
       </c>
-      <c r="C153" s="17" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D153" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="9" t="s">
-        <v>1278</v>
+      <c r="B160" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="17" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D161" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1240</v>
-      </c>
+      <c r="A161" s="17"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="9" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="17" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
         <v>1324</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D162" t="s">
-        <v>12</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="17"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="4"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="17"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="4"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="17"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="4"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="17"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="4"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="17"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="4"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="17"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="4"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="17"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="4"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="17" t="s">
+      <c r="A170" s="17"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="17"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="17"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="17"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="17"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="17"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="17"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C177" s="17" t="s">
         <v>1248</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" t="s">
         <v>1249</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D170" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -6858,86 +7467,92 @@
     <hyperlink ref="B32" r:id="rId28"/>
     <hyperlink ref="B33" r:id="rId29"/>
     <hyperlink ref="B34" r:id="rId30"/>
-    <hyperlink ref="B38" r:id="rId31"/>
-    <hyperlink ref="B39" r:id="rId32"/>
-    <hyperlink ref="B40" r:id="rId33"/>
-    <hyperlink ref="B41" r:id="rId34"/>
-    <hyperlink ref="B42" r:id="rId35"/>
-    <hyperlink ref="B46" r:id="rId36"/>
-    <hyperlink ref="B66" r:id="rId37"/>
-    <hyperlink ref="B48" r:id="rId38"/>
-    <hyperlink ref="B49" r:id="rId39"/>
-    <hyperlink ref="B50" r:id="rId40"/>
-    <hyperlink ref="B67" r:id="rId41"/>
-    <hyperlink ref="B51" r:id="rId42"/>
-    <hyperlink ref="B52" r:id="rId43"/>
-    <hyperlink ref="B53" r:id="rId44"/>
-    <hyperlink ref="B54" r:id="rId45"/>
-    <hyperlink ref="B55" r:id="rId46"/>
-    <hyperlink ref="B68" r:id="rId47"/>
-    <hyperlink ref="B81" r:id="rId48"/>
-    <hyperlink ref="B56" r:id="rId49"/>
-    <hyperlink ref="B57" r:id="rId50"/>
-    <hyperlink ref="B58" r:id="rId51"/>
-    <hyperlink ref="B70" r:id="rId52"/>
-    <hyperlink ref="B71" r:id="rId53"/>
-    <hyperlink ref="B72" r:id="rId54"/>
-    <hyperlink ref="B74" r:id="rId55"/>
-    <hyperlink ref="B75" r:id="rId56"/>
-    <hyperlink ref="B76" r:id="rId57"/>
-    <hyperlink ref="B77" r:id="rId58"/>
-    <hyperlink ref="B78" r:id="rId59"/>
-    <hyperlink ref="B79" r:id="rId60"/>
-    <hyperlink ref="B103" r:id="rId61"/>
-    <hyperlink ref="B102" r:id="rId62"/>
-    <hyperlink ref="B101" r:id="rId63"/>
-    <hyperlink ref="B99" r:id="rId64"/>
-    <hyperlink ref="B98" r:id="rId65"/>
-    <hyperlink ref="B97" r:id="rId66"/>
-    <hyperlink ref="B96" r:id="rId67"/>
-    <hyperlink ref="B95" r:id="rId68"/>
-    <hyperlink ref="B94" r:id="rId69"/>
-    <hyperlink ref="B82" r:id="rId70"/>
-    <hyperlink ref="B110" r:id="rId71"/>
-    <hyperlink ref="B131" r:id="rId72"/>
-    <hyperlink ref="B133" r:id="rId73"/>
-    <hyperlink ref="B135" r:id="rId74"/>
-    <hyperlink ref="B119" r:id="rId75"/>
-    <hyperlink ref="B136" r:id="rId76"/>
-    <hyperlink ref="B120" r:id="rId77"/>
-    <hyperlink ref="B59" r:id="rId78"/>
-    <hyperlink ref="C59" r:id="rId79"/>
-    <hyperlink ref="B60" r:id="rId80"/>
-    <hyperlink ref="B86" r:id="rId81"/>
-    <hyperlink ref="B61" r:id="rId82"/>
-    <hyperlink ref="B161" r:id="rId83"/>
-    <hyperlink ref="B137" r:id="rId84"/>
-    <hyperlink ref="B152" r:id="rId85"/>
-    <hyperlink ref="B112" r:id="rId86"/>
-    <hyperlink ref="B143" r:id="rId87"/>
-    <hyperlink ref="C143" r:id="rId88"/>
-    <hyperlink ref="B144" r:id="rId89"/>
-    <hyperlink ref="B113" r:id="rId90"/>
-    <hyperlink ref="B153" r:id="rId91"/>
-    <hyperlink ref="B162" r:id="rId92"/>
-    <hyperlink ref="B121" r:id="rId93"/>
-    <hyperlink ref="B145" r:id="rId94" display="https://leetcode.com/contest/weekly-contest-170/problems/decrypt-string-from-alphabet-to-integer-mapping/"/>
-    <hyperlink ref="B123" r:id="rId95"/>
-    <hyperlink ref="B104" r:id="rId96"/>
-    <hyperlink ref="B100" r:id="rId97"/>
-    <hyperlink ref="C100" r:id="rId98"/>
+    <hyperlink ref="B45" r:id="rId31"/>
+    <hyperlink ref="B46" r:id="rId32"/>
+    <hyperlink ref="B47" r:id="rId33"/>
+    <hyperlink ref="B48" r:id="rId34"/>
+    <hyperlink ref="B49" r:id="rId35"/>
+    <hyperlink ref="B53" r:id="rId36"/>
+    <hyperlink ref="B73" r:id="rId37"/>
+    <hyperlink ref="B55" r:id="rId38"/>
+    <hyperlink ref="B56" r:id="rId39"/>
+    <hyperlink ref="B57" r:id="rId40"/>
+    <hyperlink ref="B74" r:id="rId41"/>
+    <hyperlink ref="B58" r:id="rId42"/>
+    <hyperlink ref="B59" r:id="rId43"/>
+    <hyperlink ref="B60" r:id="rId44"/>
+    <hyperlink ref="B61" r:id="rId45"/>
+    <hyperlink ref="B62" r:id="rId46"/>
+    <hyperlink ref="B75" r:id="rId47"/>
+    <hyperlink ref="B88" r:id="rId48"/>
+    <hyperlink ref="B63" r:id="rId49"/>
+    <hyperlink ref="B64" r:id="rId50"/>
+    <hyperlink ref="B65" r:id="rId51"/>
+    <hyperlink ref="B77" r:id="rId52"/>
+    <hyperlink ref="B78" r:id="rId53"/>
+    <hyperlink ref="B79" r:id="rId54"/>
+    <hyperlink ref="B81" r:id="rId55"/>
+    <hyperlink ref="B82" r:id="rId56"/>
+    <hyperlink ref="B83" r:id="rId57"/>
+    <hyperlink ref="B84" r:id="rId58"/>
+    <hyperlink ref="B85" r:id="rId59"/>
+    <hyperlink ref="B86" r:id="rId60"/>
+    <hyperlink ref="B110" r:id="rId61"/>
+    <hyperlink ref="B109" r:id="rId62"/>
+    <hyperlink ref="B108" r:id="rId63"/>
+    <hyperlink ref="B106" r:id="rId64"/>
+    <hyperlink ref="B105" r:id="rId65"/>
+    <hyperlink ref="B104" r:id="rId66"/>
+    <hyperlink ref="B103" r:id="rId67"/>
+    <hyperlink ref="B102" r:id="rId68"/>
+    <hyperlink ref="B101" r:id="rId69"/>
+    <hyperlink ref="B89" r:id="rId70"/>
+    <hyperlink ref="B117" r:id="rId71"/>
+    <hyperlink ref="B138" r:id="rId72"/>
+    <hyperlink ref="B140" r:id="rId73"/>
+    <hyperlink ref="B142" r:id="rId74"/>
+    <hyperlink ref="B126" r:id="rId75"/>
+    <hyperlink ref="B143" r:id="rId76"/>
+    <hyperlink ref="B127" r:id="rId77"/>
+    <hyperlink ref="B66" r:id="rId78"/>
+    <hyperlink ref="C66" r:id="rId79"/>
+    <hyperlink ref="B67" r:id="rId80"/>
+    <hyperlink ref="B93" r:id="rId81"/>
+    <hyperlink ref="B68" r:id="rId82"/>
+    <hyperlink ref="B168" r:id="rId83"/>
+    <hyperlink ref="B144" r:id="rId84"/>
+    <hyperlink ref="B159" r:id="rId85"/>
+    <hyperlink ref="B119" r:id="rId86"/>
+    <hyperlink ref="B150" r:id="rId87"/>
+    <hyperlink ref="C150" r:id="rId88"/>
+    <hyperlink ref="B151" r:id="rId89"/>
+    <hyperlink ref="B120" r:id="rId90"/>
+    <hyperlink ref="B160" r:id="rId91"/>
+    <hyperlink ref="B169" r:id="rId92"/>
+    <hyperlink ref="B128" r:id="rId93"/>
+    <hyperlink ref="B152" r:id="rId94" display="https://leetcode.com/contest/weekly-contest-170/problems/decrypt-string-from-alphabet-to-integer-mapping/"/>
+    <hyperlink ref="B130" r:id="rId95"/>
+    <hyperlink ref="B111" r:id="rId96"/>
+    <hyperlink ref="B107" r:id="rId97"/>
+    <hyperlink ref="C107" r:id="rId98"/>
+    <hyperlink ref="B40" r:id="rId99"/>
+    <hyperlink ref="C40" r:id="rId100"/>
+    <hyperlink ref="B41" r:id="rId101"/>
+    <hyperlink ref="B95" r:id="rId102"/>
+    <hyperlink ref="B162" r:id="rId103"/>
+    <hyperlink ref="B163" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId99"/>
+  <pageSetup orientation="portrait" r:id="rId105"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7291,6 +7906,23 @@
       </c>
       <c r="E29" t="s">
         <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -7311,18 +7943,19 @@
     <hyperlink ref="B27" r:id="rId14"/>
     <hyperlink ref="B28" r:id="rId15"/>
     <hyperlink ref="B11" r:id="rId16"/>
+    <hyperlink ref="B31" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7379,70 +8012,89 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>1293</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>1294</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1296</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>70</v>
+      <c r="A6" s="30" t="s">
+        <v>1406</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>1325</v>
+        <v>1407</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1408</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>1334</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1336</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7478,7 +8130,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>729</v>
@@ -7495,7 +8147,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>732</v>
@@ -7835,19 +8487,36 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>1261</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
         <v>1262</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1264</v>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>
@@ -7870,9 +8539,10 @@
     <hyperlink ref="B21" r:id="rId16"/>
     <hyperlink ref="B24" r:id="rId17"/>
     <hyperlink ref="B28" r:id="rId18"/>
+    <hyperlink ref="B29" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -8101,7 +8771,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1022</v>
@@ -8980,15 +9650,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="97.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -9024,14 +9695,26 @@
         <v>1156</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9190,10 +9873,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9251,27 +9934,44 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>1369</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1374</v>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1535</v>
       </c>
     </row>
   </sheetData>
@@ -9288,10 +9988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9582,7 +10282,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>274</v>
@@ -9752,10 +10452,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>991</v>
@@ -9764,41 +10464,77 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="17"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
         <v>1386</v>
       </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
         <v>1387</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="B36" s="3" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="C36" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
         <v>1390</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1392</v>
+    </row>
+    <row r="37" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -9827,19 +10563,21 @@
     <hyperlink ref="B29" r:id="rId22"/>
     <hyperlink ref="B30" r:id="rId23"/>
     <hyperlink ref="B31" r:id="rId24"/>
-    <hyperlink ref="B33" r:id="rId25"/>
+    <hyperlink ref="B36" r:id="rId25"/>
+    <hyperlink ref="B37" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10239,6 +10977,20 @@
       </c>
       <c r="E28" t="s">
         <v>1072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -10262,18 +11014,19 @@
     <hyperlink ref="B25" r:id="rId17"/>
     <hyperlink ref="B28" r:id="rId18"/>
     <hyperlink ref="B12" r:id="rId19"/>
+    <hyperlink ref="B31" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10341,36 +11094,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1192</v>
+      <c r="A5" s="17" t="s">
+        <v>1196</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -10408,97 +11144,34 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1219</v>
-      </c>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>1202</v>
@@ -10507,15 +11180,15 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>975</v>
@@ -10526,21 +11199,398 @@
       <c r="E17" t="s">
         <v>975</v>
       </c>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
+      <c r="B30" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="17" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="17"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="17" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="17" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C53" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B37" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B9" r:id="rId4"/>
     <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B13" r:id="rId6"/>
-    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B46" r:id="rId6"/>
+    <hyperlink ref="B49" r:id="rId7"/>
     <hyperlink ref="B15" r:id="rId8"/>
     <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B21" r:id="rId10"/>
+    <hyperlink ref="B35" r:id="rId11"/>
+    <hyperlink ref="B36" r:id="rId12"/>
+    <hyperlink ref="B50" r:id="rId13"/>
+    <hyperlink ref="B51" r:id="rId14"/>
+    <hyperlink ref="B52" r:id="rId15"/>
+    <hyperlink ref="B30" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId17"/>
+    <hyperlink ref="B24" r:id="rId18"/>
+    <hyperlink ref="B25" r:id="rId19"/>
+    <hyperlink ref="B27" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -10548,8 +11598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10602,7 +11652,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>609</v>
@@ -10704,7 +11754,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>979</v>
@@ -10738,41 +11788,54 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>1265</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1267</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="17" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
@@ -10808,7 +11871,7 @@
         <v>718</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>113</v>
@@ -10856,19 +11919,19 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
   </sheetData>
@@ -11281,16 +12344,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="3" max="3" width="35.36328125" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="40.08984375" customWidth="1"/>
@@ -11337,7 +12400,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>463</v>
@@ -11563,19 +12626,19 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>1308</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
         <v>1309</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -11588,6 +12651,20 @@
       <c r="B32" s="3"/>
       <c r="C32" s="17"/>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1415</v>
+      </c>
+    </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>974</v>
@@ -11692,53 +12769,185 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
         <v>1252</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>1304</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
         <v>1305</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
         <v>1346</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1348</v>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="17"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="17"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="17"/>
+      <c r="B52" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="17"/>
+      <c r="B53" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="17"/>
+    </row>
+    <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="17" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -11763,18 +12972,23 @@
     <hyperlink ref="B41" r:id="rId18"/>
     <hyperlink ref="B42" r:id="rId19"/>
     <hyperlink ref="B30" r:id="rId20"/>
+    <hyperlink ref="B57" r:id="rId21"/>
+    <hyperlink ref="B46" r:id="rId22"/>
+    <hyperlink ref="B47" r:id="rId23"/>
+    <hyperlink ref="B52" r:id="rId24"/>
+    <hyperlink ref="B53" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12201,71 +13415,45 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A30" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>426</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>429</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>443</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>416</v>
@@ -12274,15 +13462,15 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>416</v>
@@ -12291,15 +13479,15 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>797</v>
+        <v>443</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>416</v>
@@ -12308,15 +13496,15 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>485</v>
+      <c r="A38" s="17" t="s">
+        <v>796</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>416</v>
@@ -12325,15 +13513,15 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>416</v>
@@ -12342,15 +13530,15 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>498</v>
+        <v>797</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>416</v>
@@ -12359,105 +13547,105 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>989</v>
+        <v>485</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>990</v>
+        <v>486</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>991</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>992</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>497</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>498</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>989</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C45" s="3" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>451</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>462</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>465</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>416</v>
@@ -12466,71 +13654,71 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
-        <v>507</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>462</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>465</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>583</v>
+        <v>416</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>512</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>515</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
-        <v>517</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>583</v>
@@ -12539,15 +13727,15 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
-        <v>638</v>
+      <c r="A56" t="s">
+        <v>512</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>583</v>
@@ -12556,15 +13744,15 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>583</v>
@@ -12573,15 +13761,15 @@
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>583</v>
@@ -12590,15 +13778,15 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>534</v>
+      <c r="A59" s="17" t="s">
+        <v>638</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>583</v>
@@ -12607,15 +13795,15 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>583</v>
@@ -12624,15 +13812,15 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>583</v>
@@ -12641,15 +13829,15 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>583</v>
@@ -12658,15 +13846,15 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>583</v>
@@ -12675,15 +13863,15 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>583</v>
@@ -12692,15 +13880,15 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>583</v>
@@ -12709,15 +13897,15 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>584</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>583</v>
@@ -12726,15 +13914,15 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>587</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>583</v>
@@ -12743,15 +13931,15 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="17" t="s">
-        <v>818</v>
+      <c r="A68" t="s">
+        <v>581</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>583</v>
@@ -12760,15 +13948,15 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>583</v>
@@ -12777,15 +13965,15 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>583</v>
@@ -12794,265 +13982,362 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>1158</v>
+        <v>818</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>991</v>
+        <v>583</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>1159</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
-        <v>1189</v>
+      <c r="A72" t="s">
+        <v>599</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1190</v>
+        <v>600</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>954</v>
+        <v>583</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>1191</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>724</v>
+        <v>602</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>726</v>
+        <v>603</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>583</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>727</v>
+        <v>604</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>1288</v>
+        <v>1157</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>1158</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>1285</v>
+        <v>991</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>1289</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>724</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>1331</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C75" s="17" t="s">
+      <c r="C78" s="17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
         <v>1330</v>
       </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="17"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="17"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="17"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="17"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1450</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>529</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>547</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>591</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>593</v>
-      </c>
+      <c r="A81" s="17"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>529</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>547</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>591</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>594</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="17" t="s">
         <v>1125</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B97" s="20" t="s">
         <v>1126</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C97" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
         <v>1127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>991</v>
-      </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>991</v>
-      </c>
-      <c r="D96" t="s">
-        <v>68</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="23" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
-        <v>1137</v>
+        <v>618</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1138</v>
+        <v>1090</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>991</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="D99" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
         <v>1139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1460</v>
       </c>
     </row>
   </sheetData>
@@ -13061,82 +14346,85 @@
     <hyperlink ref="B11" r:id="rId2"/>
     <hyperlink ref="B12" r:id="rId3"/>
     <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B33" r:id="rId5"/>
+    <hyperlink ref="B36" r:id="rId5"/>
     <hyperlink ref="B14" r:id="rId6"/>
     <hyperlink ref="B15" r:id="rId7"/>
     <hyperlink ref="B17" r:id="rId8"/>
-    <hyperlink ref="B34" r:id="rId9"/>
+    <hyperlink ref="B37" r:id="rId9"/>
     <hyperlink ref="B18" r:id="rId10"/>
     <hyperlink ref="B19" r:id="rId11"/>
-    <hyperlink ref="B46" r:id="rId12"/>
+    <hyperlink ref="B49" r:id="rId12"/>
     <hyperlink ref="B20" r:id="rId13"/>
-    <hyperlink ref="B35" r:id="rId14"/>
+    <hyperlink ref="B38" r:id="rId14"/>
     <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B47" r:id="rId16"/>
-    <hyperlink ref="B48" r:id="rId17"/>
-    <hyperlink ref="B49" r:id="rId18"/>
+    <hyperlink ref="B50" r:id="rId16"/>
+    <hyperlink ref="B51" r:id="rId17"/>
+    <hyperlink ref="B52" r:id="rId18"/>
     <hyperlink ref="B22" r:id="rId19"/>
     <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B36" r:id="rId21"/>
+    <hyperlink ref="B39" r:id="rId21"/>
     <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B37" r:id="rId23"/>
-    <hyperlink ref="B38" r:id="rId24"/>
-    <hyperlink ref="B25" r:id="rId25"/>
-    <hyperlink ref="B26" r:id="rId26"/>
-    <hyperlink ref="B27" r:id="rId27"/>
-    <hyperlink ref="B39" r:id="rId28"/>
-    <hyperlink ref="B40" r:id="rId29"/>
-    <hyperlink ref="B28" r:id="rId30"/>
-    <hyperlink ref="B52" r:id="rId31"/>
-    <hyperlink ref="B53" r:id="rId32" display="https://leetcode.com/problems/trim-a-binary-search-tree/"/>
-    <hyperlink ref="B54" r:id="rId33"/>
-    <hyperlink ref="B55" r:id="rId34"/>
-    <hyperlink ref="B56" r:id="rId35"/>
-    <hyperlink ref="B57" r:id="rId36"/>
-    <hyperlink ref="B58" r:id="rId37"/>
-    <hyperlink ref="B81" r:id="rId38"/>
-    <hyperlink ref="B59" r:id="rId39"/>
-    <hyperlink ref="B60" r:id="rId40"/>
-    <hyperlink ref="B61" r:id="rId41"/>
-    <hyperlink ref="B62" r:id="rId42"/>
-    <hyperlink ref="B63" r:id="rId43"/>
-    <hyperlink ref="B82" r:id="rId44"/>
-    <hyperlink ref="B64" r:id="rId45"/>
-    <hyperlink ref="B65" r:id="rId46"/>
-    <hyperlink ref="B66" r:id="rId47"/>
-    <hyperlink ref="B67" r:id="rId48"/>
-    <hyperlink ref="B83" r:id="rId49"/>
-    <hyperlink ref="B84" r:id="rId50"/>
-    <hyperlink ref="C84" r:id="rId51"/>
-    <hyperlink ref="B68" r:id="rId52"/>
-    <hyperlink ref="B69" r:id="rId53"/>
-    <hyperlink ref="B70" r:id="rId54"/>
-    <hyperlink ref="B73" r:id="rId55"/>
-    <hyperlink ref="C73" r:id="rId56"/>
-    <hyperlink ref="B41" r:id="rId57"/>
-    <hyperlink ref="B29" r:id="rId58"/>
-    <hyperlink ref="B95" r:id="rId59"/>
-    <hyperlink ref="B96" r:id="rId60"/>
-    <hyperlink ref="B97" r:id="rId61"/>
-    <hyperlink ref="C97" r:id="rId62"/>
-    <hyperlink ref="B98" r:id="rId63"/>
-    <hyperlink ref="B72" r:id="rId64"/>
-    <hyperlink ref="B42" r:id="rId65"/>
-    <hyperlink ref="C42" r:id="rId66"/>
-    <hyperlink ref="B74" r:id="rId67"/>
-    <hyperlink ref="B75" r:id="rId68"/>
+    <hyperlink ref="B40" r:id="rId23"/>
+    <hyperlink ref="B41" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B42" r:id="rId27"/>
+    <hyperlink ref="B43" r:id="rId28"/>
+    <hyperlink ref="B28" r:id="rId29"/>
+    <hyperlink ref="B55" r:id="rId30"/>
+    <hyperlink ref="B56" r:id="rId31" display="https://leetcode.com/problems/trim-a-binary-search-tree/"/>
+    <hyperlink ref="B57" r:id="rId32"/>
+    <hyperlink ref="B58" r:id="rId33"/>
+    <hyperlink ref="B59" r:id="rId34"/>
+    <hyperlink ref="B60" r:id="rId35"/>
+    <hyperlink ref="B61" r:id="rId36"/>
+    <hyperlink ref="B84" r:id="rId37"/>
+    <hyperlink ref="B62" r:id="rId38"/>
+    <hyperlink ref="B63" r:id="rId39"/>
+    <hyperlink ref="B64" r:id="rId40"/>
+    <hyperlink ref="B65" r:id="rId41"/>
+    <hyperlink ref="B66" r:id="rId42"/>
+    <hyperlink ref="B85" r:id="rId43"/>
+    <hyperlink ref="B67" r:id="rId44"/>
+    <hyperlink ref="B68" r:id="rId45"/>
+    <hyperlink ref="B69" r:id="rId46"/>
+    <hyperlink ref="B70" r:id="rId47"/>
+    <hyperlink ref="B86" r:id="rId48"/>
+    <hyperlink ref="B87" r:id="rId49"/>
+    <hyperlink ref="C87" r:id="rId50"/>
+    <hyperlink ref="B71" r:id="rId51"/>
+    <hyperlink ref="B72" r:id="rId52"/>
+    <hyperlink ref="B73" r:id="rId53"/>
+    <hyperlink ref="B76" r:id="rId54"/>
+    <hyperlink ref="C76" r:id="rId55"/>
+    <hyperlink ref="B44" r:id="rId56"/>
+    <hyperlink ref="B29" r:id="rId57"/>
+    <hyperlink ref="B98" r:id="rId58"/>
+    <hyperlink ref="B99" r:id="rId59"/>
+    <hyperlink ref="B100" r:id="rId60"/>
+    <hyperlink ref="C100" r:id="rId61"/>
+    <hyperlink ref="B101" r:id="rId62"/>
+    <hyperlink ref="B75" r:id="rId63"/>
+    <hyperlink ref="B45" r:id="rId64"/>
+    <hyperlink ref="C45" r:id="rId65"/>
+    <hyperlink ref="B77" r:id="rId66"/>
+    <hyperlink ref="B78" r:id="rId67"/>
+    <hyperlink ref="B25" r:id="rId68"/>
+    <hyperlink ref="B30" r:id="rId69"/>
+    <hyperlink ref="B80" r:id="rId70"/>
+    <hyperlink ref="B103" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13180,6 +14468,19 @@
         <v>365</v>
       </c>
     </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1500</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>0</v>
@@ -13279,7 +14580,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B19" t="s">
         <v>388</v>
@@ -13584,19 +14885,19 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>975</v>
       </c>
       <c r="D43" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E43" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -13604,126 +14905,118 @@
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="17" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+      <c r="A46" s="17" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>798</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>556</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>559</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>562</v>
+        <v>798</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>374</v>
+        <v>554</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>629</v>
+        <v>558</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>374</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>374</v>
@@ -13732,15 +15025,15 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>960</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>572</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>573</v>
+        <v>568</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>374</v>
@@ -13749,15 +15042,15 @@
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>574</v>
+        <v>629</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>374</v>
@@ -13766,15 +15059,15 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>374</v>
@@ -13783,32 +15076,32 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>580</v>
+        <v>960</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>376</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C60" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>812</v>
+        <v>575</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>813</v>
+        <v>576</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>374</v>
@@ -13817,291 +15110,420 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>814</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>578</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>812</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>815</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" t="s">
         <v>1301</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>801</v>
+      </c>
+      <c r="B76" t="s">
+        <v>802</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D76" t="s">
         <v>68</v>
       </c>
-      <c r="E63" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>801</v>
-      </c>
-      <c r="B73" t="s">
-        <v>802</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="D73" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="E76" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
+    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
         <v>819</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>820</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>821</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>829</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>845</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>844</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>824</v>
+        <v>820</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>821</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="17" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>829</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>845</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>844</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>848</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C94" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>851</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="17" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="17" t="s">
         <v>964</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
         <v>967</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>855</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C105" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="D97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="17" t="s">
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C106" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="17" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C107" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="D99" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="17" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="17" t="s">
         <v>863</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C108" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="17" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="17" t="s">
         <v>968</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C109" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="D101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="17" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C110" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
         <v>972</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -14112,8 +15534,8 @@
     <hyperlink ref="B17" r:id="rId4"/>
     <hyperlink ref="C17" r:id="rId5"/>
     <hyperlink ref="B29" r:id="rId6"/>
-    <hyperlink ref="C60" r:id="rId7" display="https://leetcode.com/problems/decode-ways/discuss/217193/5ms-SLOPPY-Java-Solution-Using-Recursion-and-Memoization"/>
-    <hyperlink ref="B60" r:id="rId8"/>
+    <hyperlink ref="C63" r:id="rId7" display="https://leetcode.com/problems/decode-ways/discuss/217193/5ms-SLOPPY-Java-Solution-Using-Recursion-and-Memoization"/>
+    <hyperlink ref="B63" r:id="rId8"/>
     <hyperlink ref="B30" r:id="rId9"/>
     <hyperlink ref="B31" r:id="rId10"/>
     <hyperlink ref="B32" r:id="rId11"/>
@@ -14122,35 +15544,41 @@
     <hyperlink ref="B37" r:id="rId14"/>
     <hyperlink ref="B38" r:id="rId15"/>
     <hyperlink ref="C38" r:id="rId16"/>
-    <hyperlink ref="B50" r:id="rId17"/>
-    <hyperlink ref="B51" r:id="rId18"/>
-    <hyperlink ref="B52" r:id="rId19"/>
-    <hyperlink ref="B53" r:id="rId20"/>
-    <hyperlink ref="B55" r:id="rId21"/>
-    <hyperlink ref="B54" r:id="rId22"/>
-    <hyperlink ref="B56" r:id="rId23"/>
-    <hyperlink ref="B57" r:id="rId24"/>
-    <hyperlink ref="B58" r:id="rId25"/>
-    <hyperlink ref="B59" r:id="rId26"/>
+    <hyperlink ref="B53" r:id="rId17"/>
+    <hyperlink ref="B54" r:id="rId18"/>
+    <hyperlink ref="B55" r:id="rId19"/>
+    <hyperlink ref="B56" r:id="rId20"/>
+    <hyperlink ref="B58" r:id="rId21"/>
+    <hyperlink ref="B57" r:id="rId22"/>
+    <hyperlink ref="B59" r:id="rId23"/>
+    <hyperlink ref="B60" r:id="rId24"/>
+    <hyperlink ref="B61" r:id="rId25"/>
+    <hyperlink ref="B62" r:id="rId26"/>
     <hyperlink ref="B40" r:id="rId27"/>
     <hyperlink ref="B41" r:id="rId28"/>
     <hyperlink ref="B42" r:id="rId29"/>
-    <hyperlink ref="B61" r:id="rId30"/>
-    <hyperlink ref="B62" r:id="rId31"/>
-    <hyperlink ref="B83" r:id="rId32"/>
-    <hyperlink ref="B84" r:id="rId33"/>
-    <hyperlink ref="B86" r:id="rId34"/>
-    <hyperlink ref="B87" r:id="rId35"/>
-    <hyperlink ref="B97" r:id="rId36" display="https://leetcode.com/problems/house-robber/"/>
-    <hyperlink ref="B100" r:id="rId37"/>
-    <hyperlink ref="B88" r:id="rId38"/>
-    <hyperlink ref="B101" r:id="rId39"/>
-    <hyperlink ref="B102" r:id="rId40"/>
-    <hyperlink ref="B63" r:id="rId41"/>
-    <hyperlink ref="C86" r:id="rId42"/>
+    <hyperlink ref="B64" r:id="rId30"/>
+    <hyperlink ref="B65" r:id="rId31"/>
+    <hyperlink ref="B91" r:id="rId32"/>
+    <hyperlink ref="B92" r:id="rId33"/>
+    <hyperlink ref="B94" r:id="rId34"/>
+    <hyperlink ref="B95" r:id="rId35"/>
+    <hyperlink ref="B105" r:id="rId36" display="https://leetcode.com/problems/house-robber/"/>
+    <hyperlink ref="B108" r:id="rId37"/>
+    <hyperlink ref="B96" r:id="rId38"/>
+    <hyperlink ref="B109" r:id="rId39"/>
+    <hyperlink ref="B110" r:id="rId40"/>
+    <hyperlink ref="B66" r:id="rId41"/>
+    <hyperlink ref="C94" r:id="rId42"/>
     <hyperlink ref="B43" r:id="rId43"/>
+    <hyperlink ref="B97" r:id="rId44"/>
+    <hyperlink ref="B117" r:id="rId45"/>
+    <hyperlink ref="B86" r:id="rId46"/>
+    <hyperlink ref="B45" r:id="rId47"/>
+    <hyperlink ref="B46" r:id="rId48"/>
+    <hyperlink ref="B8" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/src/com/interview/excel/DS problem for interview.xlsx
+++ b/src/com/interview/excel/DS problem for interview.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="1693">
   <si>
     <t>Problem Name</t>
   </si>
@@ -4696,12 +4696,471 @@
   <si>
     <t>com.interview.leetcode.binarysearch</t>
   </si>
+  <si>
+    <t>LongestIncreasing variants</t>
+  </si>
+  <si>
+    <t>LargestDivisibleSubset</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-divisible-subset/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.lis</t>
+  </si>
+  <si>
+    <t>Based on LIS</t>
+  </si>
+  <si>
+    <t>MinInSortedRotatedArrayII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/</t>
+  </si>
+  <si>
+    <t>RotateArray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/submissions/detail/348152666/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-a-number-to-hexadecimal/</t>
+  </si>
+  <si>
+    <t>RussianDollEnvelopes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/russian-doll-envelopes/</t>
+  </si>
+  <si>
+    <t>Sorting + LIS</t>
+  </si>
+  <si>
+    <t>MaxLengthOfPairChain</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-length-of-pair-chain/</t>
+  </si>
+  <si>
+    <t>Almost same as LIS</t>
+  </si>
+  <si>
+    <t>NumberOfLIS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-longest-increasing-subsequence/</t>
+  </si>
+  <si>
+    <t>LIS + Backtrack in DP to find total number of ways</t>
+  </si>
+  <si>
+    <t>DeleteAndEarn</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-and-earn/</t>
+  </si>
+  <si>
+    <t>Nice application of LIS</t>
+  </si>
+  <si>
+    <t>2 ways: LIS AND Substring + Hashmap</t>
+  </si>
+  <si>
+    <t>TwoCityScheduling</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-city-scheduling/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.thirtydaysjunechallenge</t>
+  </si>
+  <si>
+    <t>sorting + greedy + Maths</t>
+  </si>
+  <si>
+    <t>PerfectSquares</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/perfect-squares/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.minmax</t>
+  </si>
+  <si>
+    <t>Pattern same as CoinChangeMinCoins</t>
+  </si>
+  <si>
+    <t>LastStoneWeightII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-stone-weight-ii/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.combinationorways</t>
+  </si>
+  <si>
+    <t>Knapsack1 + two stone smash so sum/2 logic is here..</t>
+  </si>
+  <si>
+    <t>LongestArithmeticSqByDifference</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference/</t>
+  </si>
+  <si>
+    <t>LIS + HashMAP</t>
+  </si>
+  <si>
+    <t>Based on GCD</t>
+  </si>
+  <si>
+    <t>Grokking-the-DP</t>
+  </si>
+  <si>
+    <t>BoundedKnapSackTYPE</t>
+  </si>
+  <si>
+    <t>ZeroOneKnapsack</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.grokkingdp.boundedknapsacktype</t>
+  </si>
+  <si>
+    <t>Based on Inclusion-Exclusion principle</t>
+  </si>
+  <si>
+    <t>PartitonEqualSubsetSum</t>
+  </si>
+  <si>
+    <t>SubsetSumCount</t>
+  </si>
+  <si>
+    <t>MinSubsetSumDiff</t>
+  </si>
+  <si>
+    <t>UN-BoundedKnapSackTYPE</t>
+  </si>
+  <si>
+    <t>We have to pick or Divide the number of elements with an option pick unlimited quantity.</t>
+  </si>
+  <si>
+    <t>We have to pick or Divide the number of elements with unique occurance. Problems related to Subset, TargetSum type.</t>
+  </si>
+  <si>
+    <t>QueueReconstruction</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/challenge/card/june-leetcoding-challenge/539/week-1-june-1st-june-7th/3352/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.sort</t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>UnBoundedKnapsack</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.grokkingdp.unboundedknapscaktype</t>
+  </si>
+  <si>
+    <t>Picking multiple elments using DP</t>
+  </si>
+  <si>
+    <t>RodCutting</t>
+  </si>
+  <si>
+    <t>CoinChangeWays</t>
+  </si>
+  <si>
+    <t>CoinChangeMin</t>
+  </si>
+  <si>
+    <t>MaxRibbonCut</t>
+  </si>
+  <si>
+    <t>BrowserHIstory</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-192/problems/design-browser-history/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.contests._new_weekely.contest192</t>
+  </si>
+  <si>
+    <t>Design Browser history</t>
+  </si>
+  <si>
+    <t>TODO's</t>
+  </si>
+  <si>
+    <t>StoneGameIII</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-v/</t>
+  </si>
+  <si>
+    <t>JumpGameV</t>
+  </si>
+  <si>
+    <t>DistinctOrTotalWaysType</t>
+  </si>
+  <si>
+    <t>We have given single N number. We have to calculate all, distinct, total ways kind of problem</t>
+  </si>
+  <si>
+    <t>NumberFactors</t>
+  </si>
+  <si>
+    <t>MinJumpsToReachEnd</t>
+  </si>
+  <si>
+    <t>MinJumpsWithFee</t>
+  </si>
+  <si>
+    <t>HouseThief</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game-iii/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.jumpordistictortotalways</t>
+  </si>
+  <si>
+    <t>Counting Max Jumping from end of an array</t>
+  </si>
+  <si>
+    <t>Jump + Memoizatin</t>
+  </si>
+  <si>
+    <t>LongestArithmeticSeq</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-arithmetic-sequence/</t>
+  </si>
+  <si>
+    <t>LIS + HashMap use</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/contest/weekly-contest-192/problems/paint-house-iii/</t>
+  </si>
+  <si>
+    <t>PaintHouseIII</t>
+  </si>
+  <si>
+    <t>PalindromePattern</t>
+  </si>
+  <si>
+    <t>BitCountUsage</t>
+  </si>
+  <si>
+    <t>If Integer is power of 2 , its bitcount is 1 =&gt; return n &gt; 0 &amp;&amp; Integer.bitCount(n) == 1;</t>
+  </si>
+  <si>
+    <t>Counting Bits of 2^N numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/challenge/card/june-leetcoding-challenge/540/week-2-june-8th-june-14th/3354/</t>
+  </si>
+  <si>
+    <t>LongestPalindromicSubSeq</t>
+  </si>
+  <si>
+    <t>We have to 2 pattern in it: SubString and SubSequence</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.grokkingdp.palindromepattern</t>
+  </si>
+  <si>
+    <t>MinDeletetionForPalindrome</t>
+  </si>
+  <si>
+    <t>Based on upper prob.</t>
+  </si>
+  <si>
+    <t>LongestPalindromicSubString</t>
+  </si>
+  <si>
+    <t>CountPaindromeSubstring</t>
+  </si>
+  <si>
+    <t>Based on upper prob</t>
+  </si>
+  <si>
+    <t>PalindromicPartitioning</t>
+  </si>
+  <si>
+    <t>Based on LongestPalindromicSubStr and PalindromePartitioning in backtrack list.</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/candy/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.Arrays.prefix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/assign-cookies/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.Arrays.sort</t>
+  </si>
+  <si>
+    <t>done by me</t>
+  </si>
+  <si>
+    <t>AssignCookie</t>
+  </si>
+  <si>
+    <t>BagOfTokens</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.Arrays.twopointers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/bag-of-tokens/</t>
+  </si>
+  <si>
+    <t>Greedy + 2POinters</t>
+  </si>
+  <si>
+    <t>StringManipulation</t>
+  </si>
+  <si>
+    <t>MaxSumIncreasingSubSeq</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.grokkingdp.stringmanipulation</t>
+  </si>
+  <si>
+    <t>Application of LongestIncreasingSubSequence</t>
+  </si>
+  <si>
+    <t>ShortestCommonSuperSeq</t>
+  </si>
+  <si>
+    <t>ShortestCommonSuperSeqString</t>
+  </si>
+  <si>
+    <t>Application of LongestCommonSubSequence</t>
+  </si>
+  <si>
+    <t>PreviousPermutation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/previous-permutation-with-one-swap/</t>
+  </si>
+  <si>
+    <t>Prev permutation logic</t>
+  </si>
+  <si>
+    <t>AllocateMailBoxes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/allocate-mailboxes/</t>
+  </si>
+  <si>
+    <t>com.interview.leetcode.dp.partiotining</t>
+  </si>
+  <si>
+    <t>Based on PalindromicPartitioning</t>
+  </si>
+  <si>
+    <t>MinDaysForMBouquets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-days-to-make-m-bouquets/</t>
+  </si>
+  <si>
+    <t>New BS pattern for Min number of Steps</t>
+  </si>
+  <si>
+    <t>FindSmallestDivisor</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold/</t>
+  </si>
+  <si>
+    <t>Same Hit and Trial Binary Search Pattern</t>
+  </si>
+  <si>
+    <t>DivideChocolate</t>
+  </si>
+  <si>
+    <t>Based on Lowe bound and Hit trial method</t>
+  </si>
+  <si>
+    <t>ShipPackagesWithinDDays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/</t>
+  </si>
+  <si>
+    <t>KokoEatingBananas</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/</t>
+  </si>
+  <si>
+    <t>SplitArrayLargestSum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-array-largest-sum/</t>
+  </si>
+  <si>
+    <t>Same as KokoEatingBananas</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cheapest-flights-within-k-stops/</t>
+  </si>
+  <si>
+    <t>CheapestFlight</t>
+  </si>
+  <si>
+    <t>Finding shortest path and cost using same logic as CourseSchedule</t>
+  </si>
+  <si>
+    <t>MinDeletionSeqSorted</t>
+  </si>
+  <si>
+    <t>LongestRepeatedSubSeq</t>
+  </si>
+  <si>
+    <t>SubsequencePatternMatching</t>
+  </si>
+  <si>
+    <t>SAme as LongestCommonSubSequence</t>
+  </si>
+  <si>
+    <t>Application of LongestCommonSubSequence; little tricky</t>
+  </si>
+  <si>
+    <t>LongestBitonicSubSeq</t>
+  </si>
+  <si>
+    <t>Mix of LongestIncreasing or Decreasing subseq</t>
+  </si>
+  <si>
+    <t>LongestAlternatingSubseq</t>
+  </si>
+  <si>
+    <t>A wiggle subsesequence</t>
+  </si>
+  <si>
+    <t>StringInterleaving</t>
+  </si>
+  <si>
+    <t>TOP down and recursive is easy.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4856,6 +5315,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4908,7 +5373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4960,6 +5425,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5241,10 +5709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6269,535 +6737,479 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="17"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="72" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
+      <c r="A69" s="17" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="17"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="17"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="17"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="17"/>
+      <c r="B75" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="D75" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="17"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="79" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="9" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>780</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>781</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>783</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="17" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>179</v>
+        <v>127</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="17" t="s">
-        <v>784</v>
+      <c r="A81" t="s">
+        <v>780</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
-        <v>785</v>
+      <c r="A82" t="s">
+        <v>781</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>185</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>186</v>
+        <v>783</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D85" t="s">
-        <v>68</v>
-      </c>
-      <c r="E85" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>219</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="17" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>786</v>
+      <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>787</v>
+        <v>176</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>788</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="D88" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
-        <v>876</v>
+        <v>785</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>877</v>
+        <v>183</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>873</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>878</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>935</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>936</v>
+        <v>185</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E90" t="s">
-        <v>484</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="17" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>1220</v>
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>1221</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="17" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>1224</v>
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E92" t="s">
-        <v>1353</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="17" t="s">
-        <v>1225</v>
+      <c r="A93" t="s">
+        <v>219</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>1220</v>
+        <v>220</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>1227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="17"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="4"/>
+      <c r="A94" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>935</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="17" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D100" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="17"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="17" t="s">
         <v>1444</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>1445</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="9" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="17" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="17" t="s">
         <v>1347</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>197</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>201</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="17" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="17" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>165</v>
@@ -6806,15 +7218,15 @@
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="17" t="s">
-        <v>1351</v>
+      <c r="A109" t="s">
+        <v>197</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>165</v>
@@ -6823,615 +7235,835 @@
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="17" t="s">
-        <v>1348</v>
+      <c r="A111" t="s">
+        <v>204</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1349</v>
+        <v>203</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="9" t="s">
-        <v>941</v>
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>942</v>
+        <v>216</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>944</v>
+        <v>217</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>943</v>
+        <v>165</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>945</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="9" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>942</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="17" t="s">
         <v>1269</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B125" s="20" t="s">
         <v>1270</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C125" s="17" t="s">
         <v>1271</v>
       </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
         <v>1272</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="17" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="17" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="9" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>952</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>953</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>954</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="17" t="s">
-        <v>1073</v>
+        <v>1281</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1074</v>
+        <v>1282</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>954</v>
+        <v>1283</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>1075</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="9" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>952</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="17" t="s">
         <v>1098</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C134" s="17" t="s">
         <v>1100</v>
       </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="17" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C135" s="17" t="s">
         <v>1323</v>
       </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="17" t="s">
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="17" t="s">
         <v>1326</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B136" s="20" t="s">
         <v>1343</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C136" s="17" t="s">
         <v>1328</v>
       </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
         <v>1327</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="17" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="17"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="17"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="17"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="17"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="17"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="17"/>
-    </row>
-    <row r="136" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="9" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>1004</v>
+        <v>1341</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1340</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>606</v>
+        <v>1338</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>1005</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="D138" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" t="s">
-        <v>12</v>
-      </c>
+      <c r="A138" s="17"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="17"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>1008</v>
+      <c r="A139" s="17" t="s">
+        <v>1639</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>606</v>
+        <v>1640</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>1641</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1010</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>606</v>
+        <v>928</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>1641</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D142" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D143" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1091</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="9" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="17" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>1274</v>
+        <v>620</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>1004</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>1271</v>
+        <v>606</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="9" t="s">
-        <v>1310</v>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>1295</v>
+      <c r="A150" s="17" t="s">
+        <v>618</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>1298</v>
+        <v>1090</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>1070</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>1297</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="17" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="17" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="17"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="17"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="17" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="17" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="17"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="17"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="162" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="9" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="17" t="s">
         <v>1311</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C164" s="17" t="s">
         <v>1313</v>
       </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="17" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="17" t="s">
         <v>1336</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B165" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C165" s="17" t="s">
         <v>1338</v>
       </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="17"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="4"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="17"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="4"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="17" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="17"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="17"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="17" t="s">
         <v>1102</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B171" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C171" s="17" t="s">
         <v>1100</v>
       </c>
-      <c r="D158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="17" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="17" t="s">
         <v>1277</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C172" s="17" t="s">
         <v>1279</v>
       </c>
-      <c r="D159" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="17" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="17" t="s">
         <v>1320</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B173" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C173" s="17" t="s">
         <v>1313</v>
       </c>
-      <c r="D160" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="17"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="17" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="17" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="9" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="17" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D168" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="17" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D169" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="17"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="4"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="17"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="4"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="17"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="4"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="17"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="17"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="17"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="4"/>
+      <c r="A175" s="17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="17"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="4"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="17" t="s">
+      <c r="A176" s="17" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="9" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="17" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="17"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="17"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="17"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="17"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="17"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="17"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="17"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="17" t="s">
         <v>1246</v>
       </c>
-      <c r="B177" s="20" t="s">
+      <c r="B190" s="20" t="s">
         <v>1247</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C190" s="17" t="s">
         <v>1248</v>
       </c>
-      <c r="D177" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -7473,77 +8105,84 @@
     <hyperlink ref="B48" r:id="rId34"/>
     <hyperlink ref="B49" r:id="rId35"/>
     <hyperlink ref="B53" r:id="rId36"/>
-    <hyperlink ref="B73" r:id="rId37"/>
+    <hyperlink ref="B80" r:id="rId37"/>
     <hyperlink ref="B55" r:id="rId38"/>
     <hyperlink ref="B56" r:id="rId39"/>
     <hyperlink ref="B57" r:id="rId40"/>
-    <hyperlink ref="B74" r:id="rId41"/>
+    <hyperlink ref="B81" r:id="rId41"/>
     <hyperlink ref="B58" r:id="rId42"/>
     <hyperlink ref="B59" r:id="rId43"/>
     <hyperlink ref="B60" r:id="rId44"/>
     <hyperlink ref="B61" r:id="rId45"/>
     <hyperlink ref="B62" r:id="rId46"/>
-    <hyperlink ref="B75" r:id="rId47"/>
-    <hyperlink ref="B88" r:id="rId48"/>
+    <hyperlink ref="B82" r:id="rId47"/>
+    <hyperlink ref="B95" r:id="rId48"/>
     <hyperlink ref="B63" r:id="rId49"/>
     <hyperlink ref="B64" r:id="rId50"/>
     <hyperlink ref="B65" r:id="rId51"/>
-    <hyperlink ref="B77" r:id="rId52"/>
-    <hyperlink ref="B78" r:id="rId53"/>
-    <hyperlink ref="B79" r:id="rId54"/>
-    <hyperlink ref="B81" r:id="rId55"/>
-    <hyperlink ref="B82" r:id="rId56"/>
-    <hyperlink ref="B83" r:id="rId57"/>
-    <hyperlink ref="B84" r:id="rId58"/>
-    <hyperlink ref="B85" r:id="rId59"/>
-    <hyperlink ref="B86" r:id="rId60"/>
-    <hyperlink ref="B110" r:id="rId61"/>
-    <hyperlink ref="B109" r:id="rId62"/>
-    <hyperlink ref="B108" r:id="rId63"/>
-    <hyperlink ref="B106" r:id="rId64"/>
-    <hyperlink ref="B105" r:id="rId65"/>
-    <hyperlink ref="B104" r:id="rId66"/>
-    <hyperlink ref="B103" r:id="rId67"/>
-    <hyperlink ref="B102" r:id="rId68"/>
-    <hyperlink ref="B101" r:id="rId69"/>
-    <hyperlink ref="B89" r:id="rId70"/>
-    <hyperlink ref="B117" r:id="rId71"/>
-    <hyperlink ref="B138" r:id="rId72"/>
-    <hyperlink ref="B140" r:id="rId73"/>
-    <hyperlink ref="B142" r:id="rId74"/>
-    <hyperlink ref="B126" r:id="rId75"/>
-    <hyperlink ref="B143" r:id="rId76"/>
-    <hyperlink ref="B127" r:id="rId77"/>
+    <hyperlink ref="B84" r:id="rId52"/>
+    <hyperlink ref="B85" r:id="rId53"/>
+    <hyperlink ref="B86" r:id="rId54"/>
+    <hyperlink ref="B88" r:id="rId55"/>
+    <hyperlink ref="B89" r:id="rId56"/>
+    <hyperlink ref="B90" r:id="rId57"/>
+    <hyperlink ref="B91" r:id="rId58"/>
+    <hyperlink ref="B92" r:id="rId59"/>
+    <hyperlink ref="B93" r:id="rId60"/>
+    <hyperlink ref="B117" r:id="rId61"/>
+    <hyperlink ref="B116" r:id="rId62"/>
+    <hyperlink ref="B115" r:id="rId63"/>
+    <hyperlink ref="B113" r:id="rId64"/>
+    <hyperlink ref="B112" r:id="rId65"/>
+    <hyperlink ref="B111" r:id="rId66"/>
+    <hyperlink ref="B110" r:id="rId67"/>
+    <hyperlink ref="B109" r:id="rId68"/>
+    <hyperlink ref="B108" r:id="rId69"/>
+    <hyperlink ref="B96" r:id="rId70"/>
+    <hyperlink ref="B124" r:id="rId71"/>
+    <hyperlink ref="B145" r:id="rId72"/>
+    <hyperlink ref="B147" r:id="rId73"/>
+    <hyperlink ref="B149" r:id="rId74"/>
+    <hyperlink ref="B133" r:id="rId75"/>
+    <hyperlink ref="B150" r:id="rId76"/>
+    <hyperlink ref="B134" r:id="rId77"/>
     <hyperlink ref="B66" r:id="rId78"/>
     <hyperlink ref="C66" r:id="rId79"/>
     <hyperlink ref="B67" r:id="rId80"/>
-    <hyperlink ref="B93" r:id="rId81"/>
+    <hyperlink ref="B100" r:id="rId81"/>
     <hyperlink ref="B68" r:id="rId82"/>
-    <hyperlink ref="B168" r:id="rId83"/>
-    <hyperlink ref="B144" r:id="rId84"/>
-    <hyperlink ref="B159" r:id="rId85"/>
-    <hyperlink ref="B119" r:id="rId86"/>
-    <hyperlink ref="B150" r:id="rId87"/>
-    <hyperlink ref="C150" r:id="rId88"/>
-    <hyperlink ref="B151" r:id="rId89"/>
-    <hyperlink ref="B120" r:id="rId90"/>
-    <hyperlink ref="B160" r:id="rId91"/>
-    <hyperlink ref="B169" r:id="rId92"/>
-    <hyperlink ref="B128" r:id="rId93"/>
-    <hyperlink ref="B152" r:id="rId94" display="https://leetcode.com/contest/weekly-contest-170/problems/decrypt-string-from-alphabet-to-integer-mapping/"/>
-    <hyperlink ref="B130" r:id="rId95"/>
-    <hyperlink ref="B111" r:id="rId96"/>
-    <hyperlink ref="B107" r:id="rId97"/>
-    <hyperlink ref="C107" r:id="rId98"/>
+    <hyperlink ref="B181" r:id="rId83"/>
+    <hyperlink ref="B151" r:id="rId84"/>
+    <hyperlink ref="B172" r:id="rId85"/>
+    <hyperlink ref="B126" r:id="rId86"/>
+    <hyperlink ref="B163" r:id="rId87"/>
+    <hyperlink ref="C163" r:id="rId88"/>
+    <hyperlink ref="B164" r:id="rId89"/>
+    <hyperlink ref="B127" r:id="rId90"/>
+    <hyperlink ref="B173" r:id="rId91"/>
+    <hyperlink ref="B182" r:id="rId92"/>
+    <hyperlink ref="B135" r:id="rId93"/>
+    <hyperlink ref="B165" r:id="rId94" display="https://leetcode.com/contest/weekly-contest-170/problems/decrypt-string-from-alphabet-to-integer-mapping/"/>
+    <hyperlink ref="B137" r:id="rId95"/>
+    <hyperlink ref="B118" r:id="rId96"/>
+    <hyperlink ref="B114" r:id="rId97"/>
+    <hyperlink ref="C114" r:id="rId98"/>
     <hyperlink ref="B40" r:id="rId99"/>
     <hyperlink ref="C40" r:id="rId100"/>
     <hyperlink ref="B41" r:id="rId101"/>
-    <hyperlink ref="B95" r:id="rId102"/>
-    <hyperlink ref="B162" r:id="rId103"/>
-    <hyperlink ref="B163" r:id="rId104"/>
+    <hyperlink ref="B102" r:id="rId102"/>
+    <hyperlink ref="B175" r:id="rId103"/>
+    <hyperlink ref="B176" r:id="rId104"/>
+    <hyperlink ref="B69" r:id="rId105"/>
+    <hyperlink ref="B75" r:id="rId106"/>
+    <hyperlink ref="B153" r:id="rId107"/>
+    <hyperlink ref="B154" r:id="rId108"/>
+    <hyperlink ref="B156" r:id="rId109"/>
+    <hyperlink ref="B70" r:id="rId110"/>
+    <hyperlink ref="B157" r:id="rId111"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId105"/>
+  <pageSetup orientation="portrait" r:id="rId112"/>
 </worksheet>
 </file>
 
@@ -7551,8 +8190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7952,17 +8591,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="3" max="3" width="72" customWidth="1"/>
     <col min="5" max="5" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8073,6 +8712,23 @@
       </c>
       <c r="E8" t="s">
         <v>1334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
@@ -8083,18 +8739,19 @@
     <hyperlink ref="B8" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8517,6 +9174,23 @@
       </c>
       <c r="E29" t="s">
         <v>1431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1604</v>
       </c>
     </row>
   </sheetData>
@@ -8540,9 +9214,10 @@
     <hyperlink ref="B24" r:id="rId17"/>
     <hyperlink ref="B28" r:id="rId18"/>
     <hyperlink ref="B29" r:id="rId19"/>
+    <hyperlink ref="B31" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -9876,7 +10551,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9955,6 +10630,9 @@
       </c>
       <c r="C6" s="3" t="s">
         <v>1372</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -10574,10 +11252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10991,6 +11669,119 @@
       </c>
       <c r="D31" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="17" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
@@ -11015,18 +11806,23 @@
     <hyperlink ref="B28" r:id="rId18"/>
     <hyperlink ref="B12" r:id="rId19"/>
     <hyperlink ref="B31" r:id="rId20"/>
+    <hyperlink ref="B32" r:id="rId21"/>
+    <hyperlink ref="B35" r:id="rId22"/>
+    <hyperlink ref="B36" r:id="rId23"/>
+    <hyperlink ref="B39" r:id="rId24"/>
+    <hyperlink ref="B40" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11313,57 +12109,52 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="17" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1681</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
-      <c r="B30" s="3" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>975</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="B31" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>1483</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>1475</v>
@@ -11372,96 +12163,96 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>1192</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>1194</v>
       </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="17"/>
     </row>
-    <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
         <v>1484</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>1485</v>
+        <v>1208</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>1209</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>1486</v>
+        <v>1198</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>1487</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>1211</v>
+        <v>1485</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1198</v>
+        <v>1486</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1212</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>1198</v>
@@ -11470,127 +12261,145 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="17"/>
-    </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1492</v>
-      </c>
+      <c r="A48" s="17"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>1198</v>
+        <v>1489</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1491</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>1494</v>
+        <v>1216</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>1491</v>
+        <v>1217</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>1198</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>1506</v>
+        <v>1494</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1491</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>1505</v>
+        <v>1497</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>1498</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>1506</v>
       </c>
       <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D53" t="s">
         <v>68</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C53" s="4"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C54" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B37" r:id="rId2"/>
+    <hyperlink ref="B38" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B9" r:id="rId4"/>
     <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B46" r:id="rId6"/>
-    <hyperlink ref="B49" r:id="rId7"/>
+    <hyperlink ref="B47" r:id="rId6"/>
+    <hyperlink ref="B50" r:id="rId7"/>
     <hyperlink ref="B15" r:id="rId8"/>
     <hyperlink ref="B17" r:id="rId9"/>
     <hyperlink ref="B21" r:id="rId10"/>
-    <hyperlink ref="B35" r:id="rId11"/>
-    <hyperlink ref="B36" r:id="rId12"/>
-    <hyperlink ref="B50" r:id="rId13"/>
-    <hyperlink ref="B51" r:id="rId14"/>
-    <hyperlink ref="B52" r:id="rId15"/>
-    <hyperlink ref="B30" r:id="rId16"/>
+    <hyperlink ref="B36" r:id="rId11"/>
+    <hyperlink ref="B37" r:id="rId12"/>
+    <hyperlink ref="B51" r:id="rId13"/>
+    <hyperlink ref="B52" r:id="rId14"/>
+    <hyperlink ref="B53" r:id="rId15"/>
+    <hyperlink ref="B31" r:id="rId16"/>
     <hyperlink ref="B23" r:id="rId17"/>
     <hyperlink ref="B24" r:id="rId18"/>
     <hyperlink ref="B25" r:id="rId19"/>
     <hyperlink ref="B27" r:id="rId20"/>
+    <hyperlink ref="B28" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -12987,8 +13796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14421,10 +15230,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14624,907 +15433,1749 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>1540</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="17" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="17" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1544</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>371</v>
+      <c r="A27" s="17" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>372</v>
+      <c r="A29" s="17" t="s">
+        <v>1556</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>373</v>
+        <v>1557</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>374</v>
+        <v>1543</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>375</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>378</v>
+      <c r="A30" s="17" t="s">
+        <v>1559</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>379</v>
+        <v>1560</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>374</v>
+        <v>1543</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>380</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>382</v>
+      <c r="A31" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>870</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>374</v>
+        <v>806</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>383</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>390</v>
+      <c r="A32" s="17" t="s">
+        <v>1465</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>391</v>
+        <v>1466</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>374</v>
+        <v>1437</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>392</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>393</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>394</v>
+      <c r="A33" s="17" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1620</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>374</v>
+        <v>1543</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>395</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>400</v>
+      <c r="A34" s="17" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1576</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>374</v>
+        <v>1543</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>401</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="B35" t="s">
-        <v>404</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>403</v>
-      </c>
+      <c r="A35" s="17"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="B36" t="s">
-        <v>405</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>406</v>
-      </c>
+      <c r="A36" s="17"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>409</v>
-      </c>
+      <c r="A37" s="17"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>535</v>
-      </c>
+      <c r="A38" s="17"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D39" t="s">
-        <v>316</v>
-      </c>
-      <c r="E39" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>628</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>631</v>
+      <c r="A39" s="17"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>804</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>807</v>
-      </c>
+      <c r="A41" s="17"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>808</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>811</v>
-      </c>
+      <c r="A42" s="33" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1373</v>
-      </c>
+      <c r="A43" s="17" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="17" t="s">
-        <v>975</v>
+        <v>1582</v>
       </c>
       <c r="D43" t="s">
-        <v>1374</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>1375</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="17" t="s">
+        <v>1584</v>
+      </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="17" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1583</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>374</v>
+        <v>1585</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="17" t="s">
+        <v>1582</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>1463</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>1437</v>
+        <v>1586</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="17" t="s">
+        <v>1582</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>1467</v>
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="17" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>799</v>
+      <c r="A48" s="17"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="17"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="17" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="17" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>798</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>554</v>
+      <c r="A53" s="17" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="17" t="s">
+        <v>1595</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>555</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>556</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>374</v>
+      <c r="A54" s="17" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="17" t="s">
+        <v>1595</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>558</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>559</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>165</v>
+      <c r="A55" s="17" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="17" t="s">
+        <v>1595</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>561</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>562</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>374</v>
+      <c r="A56" s="17" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="17" t="s">
+        <v>1595</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>564</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>568</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>629</v>
-      </c>
+      <c r="A57" s="17"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>565</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>566</v>
-      </c>
+      <c r="A58" s="17"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>570</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>960</v>
-      </c>
+      <c r="A59" s="17"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="17"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>572</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>574</v>
-      </c>
+      <c r="A60" s="33" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>575</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>577</v>
-      </c>
+      <c r="A61" s="17" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>578</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>580</v>
-      </c>
+      <c r="A62" s="17" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>376</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>387</v>
-      </c>
+      <c r="A63" s="17" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>812</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
-        <v>814</v>
-      </c>
+      <c r="A64" s="17" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>815</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
-        <v>817</v>
-      </c>
+      <c r="A65" s="17"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
-        <v>800</v>
+      <c r="A66" s="17"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="17"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="17"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="17"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>801</v>
-      </c>
-      <c r="B76" t="s">
-        <v>802</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>802</v>
+      <c r="A76" s="17" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4" t="s">
+        <v>1631</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
-        <v>819</v>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="17"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="17"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="17"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="33" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="17" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="17" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>820</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>821</v>
-      </c>
+      <c r="A85" s="17" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B85" s="3"/>
       <c r="C85" s="4" t="s">
-        <v>822</v>
+        <v>1652</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>823</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>1443</v>
-      </c>
+      <c r="A86" s="17" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
       <c r="D86" t="s">
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>828</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>1446</v>
-      </c>
+        <v>1683</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>828</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="17" t="s">
+        <v>1684</v>
+      </c>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
+        <v>1687</v>
+      </c>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="17" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1690</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>829</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>827</v>
-      </c>
+      <c r="A91" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>828</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>845</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>810</v>
-      </c>
+      <c r="A92" s="17" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
       <c r="D92" t="s">
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>847</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>844</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" t="s">
-        <v>825</v>
-      </c>
+      <c r="A93" s="17"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>848</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" t="s">
-        <v>850</v>
-      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>851</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="17" t="s">
-        <v>964</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" t="s">
-        <v>967</v>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1422</v>
+        <v>372</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>1424</v>
+        <v>373</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
-        <v>854</v>
-      </c>
+      <c r="E97" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>381</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>399</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>804</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>808</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>855</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="D105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" t="s">
-        <v>859</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="17" t="s">
-        <v>860</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>806</v>
+      <c r="A107" t="s">
+        <v>393</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>862</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="17" t="s">
-        <v>863</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>806</v>
+      <c r="A108" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B108" t="s">
+        <v>405</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>865</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="17" t="s">
-        <v>968</v>
+      <c r="A109" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>806</v>
+        <v>412</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="17" t="s">
-        <v>970</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="D110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
-        <v>1434</v>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
+      <c r="C115" s="17"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>390</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="17" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>378</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>628</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>570</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>572</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="17" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="17" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>798</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>556</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>559</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>562</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="17" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="17" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>578</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>376</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>812</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>815</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D144" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="17" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="B148" t="s">
+        <v>404</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D149" t="s">
+        <v>316</v>
+      </c>
+      <c r="E149" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>568</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>565</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>575</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B153" s="3"/>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B154" s="3"/>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>801</v>
+      </c>
+      <c r="B157" t="s">
+        <v>802</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D157" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>820</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="17" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B169" s="3"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B170" s="3"/>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>829</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>845</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>844</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B175" s="10"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B176" s="10"/>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B177" s="10"/>
+      <c r="C177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>848</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>851</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>855</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="17" t="s">
         <v>1435</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B201" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C201" s="17" t="s">
         <v>1437</v>
       </c>
-      <c r="D117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
         <v>1438</v>
       </c>
+    </row>
+    <row r="208" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="7" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B211" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15533,52 +17184,62 @@
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B17" r:id="rId4"/>
     <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="B29" r:id="rId6"/>
-    <hyperlink ref="C63" r:id="rId7" display="https://leetcode.com/problems/decode-ways/discuss/217193/5ms-SLOPPY-Java-Solution-Using-Recursion-and-Memoization"/>
-    <hyperlink ref="B63" r:id="rId8"/>
-    <hyperlink ref="B30" r:id="rId9"/>
-    <hyperlink ref="B31" r:id="rId10"/>
-    <hyperlink ref="B32" r:id="rId11"/>
-    <hyperlink ref="B33" r:id="rId12"/>
-    <hyperlink ref="B34" r:id="rId13"/>
-    <hyperlink ref="B37" r:id="rId14"/>
-    <hyperlink ref="B38" r:id="rId15"/>
-    <hyperlink ref="C38" r:id="rId16"/>
-    <hyperlink ref="B53" r:id="rId17"/>
-    <hyperlink ref="B54" r:id="rId18"/>
-    <hyperlink ref="B55" r:id="rId19"/>
-    <hyperlink ref="B56" r:id="rId20"/>
-    <hyperlink ref="B58" r:id="rId21"/>
-    <hyperlink ref="B57" r:id="rId22"/>
-    <hyperlink ref="B59" r:id="rId23"/>
-    <hyperlink ref="B60" r:id="rId24"/>
-    <hyperlink ref="B61" r:id="rId25"/>
-    <hyperlink ref="B62" r:id="rId26"/>
-    <hyperlink ref="B40" r:id="rId27"/>
-    <hyperlink ref="B41" r:id="rId28"/>
-    <hyperlink ref="B42" r:id="rId29"/>
-    <hyperlink ref="B64" r:id="rId30"/>
-    <hyperlink ref="B65" r:id="rId31"/>
-    <hyperlink ref="B91" r:id="rId32"/>
-    <hyperlink ref="B92" r:id="rId33"/>
-    <hyperlink ref="B94" r:id="rId34"/>
-    <hyperlink ref="B95" r:id="rId35"/>
-    <hyperlink ref="B105" r:id="rId36" display="https://leetcode.com/problems/house-robber/"/>
-    <hyperlink ref="B108" r:id="rId37"/>
-    <hyperlink ref="B96" r:id="rId38"/>
-    <hyperlink ref="B109" r:id="rId39"/>
-    <hyperlink ref="B110" r:id="rId40"/>
-    <hyperlink ref="B66" r:id="rId41"/>
-    <hyperlink ref="C94" r:id="rId42"/>
-    <hyperlink ref="B43" r:id="rId43"/>
-    <hyperlink ref="B97" r:id="rId44"/>
-    <hyperlink ref="B117" r:id="rId45"/>
-    <hyperlink ref="B86" r:id="rId46"/>
-    <hyperlink ref="B45" r:id="rId47"/>
-    <hyperlink ref="B46" r:id="rId48"/>
+    <hyperlink ref="B97" r:id="rId6"/>
+    <hyperlink ref="C141" r:id="rId7" display="https://leetcode.com/problems/decode-ways/discuss/217193/5ms-SLOPPY-Java-Solution-Using-Recursion-and-Memoization"/>
+    <hyperlink ref="B141" r:id="rId8"/>
+    <hyperlink ref="B120" r:id="rId9"/>
+    <hyperlink ref="B98" r:id="rId10"/>
+    <hyperlink ref="B118" r:id="rId11"/>
+    <hyperlink ref="B107" r:id="rId12"/>
+    <hyperlink ref="B99" r:id="rId13"/>
+    <hyperlink ref="B100" r:id="rId14"/>
+    <hyperlink ref="B109" r:id="rId15"/>
+    <hyperlink ref="C109" r:id="rId16"/>
+    <hyperlink ref="B131" r:id="rId17"/>
+    <hyperlink ref="B132" r:id="rId18"/>
+    <hyperlink ref="B133" r:id="rId19"/>
+    <hyperlink ref="B134" r:id="rId20"/>
+    <hyperlink ref="B151" r:id="rId21"/>
+    <hyperlink ref="B150" r:id="rId22"/>
+    <hyperlink ref="B122" r:id="rId23"/>
+    <hyperlink ref="B123" r:id="rId24"/>
+    <hyperlink ref="B152" r:id="rId25"/>
+    <hyperlink ref="B140" r:id="rId26"/>
+    <hyperlink ref="B121" r:id="rId27"/>
+    <hyperlink ref="B101" r:id="rId28"/>
+    <hyperlink ref="B102" r:id="rId29"/>
+    <hyperlink ref="B142" r:id="rId30"/>
+    <hyperlink ref="B143" r:id="rId31"/>
+    <hyperlink ref="B172" r:id="rId32"/>
+    <hyperlink ref="B173" r:id="rId33"/>
+    <hyperlink ref="B178" r:id="rId34"/>
+    <hyperlink ref="B179" r:id="rId35"/>
+    <hyperlink ref="B189" r:id="rId36" display="https://leetcode.com/problems/house-robber/"/>
+    <hyperlink ref="B192" r:id="rId37"/>
+    <hyperlink ref="B180" r:id="rId38"/>
+    <hyperlink ref="B193" r:id="rId39"/>
+    <hyperlink ref="B194" r:id="rId40"/>
+    <hyperlink ref="B144" r:id="rId41"/>
+    <hyperlink ref="C178" r:id="rId42"/>
+    <hyperlink ref="B116" r:id="rId43"/>
+    <hyperlink ref="B181" r:id="rId44"/>
+    <hyperlink ref="B201" r:id="rId45"/>
+    <hyperlink ref="B167" r:id="rId46"/>
+    <hyperlink ref="B119" r:id="rId47"/>
+    <hyperlink ref="B32" r:id="rId48"/>
     <hyperlink ref="B8" r:id="rId49"/>
+    <hyperlink ref="B26" r:id="rId50"/>
+    <hyperlink ref="B27" r:id="rId51"/>
+    <hyperlink ref="B28" r:id="rId52"/>
+    <hyperlink ref="B30" r:id="rId53"/>
+    <hyperlink ref="B125" r:id="rId54"/>
+    <hyperlink ref="B147" r:id="rId55"/>
+    <hyperlink ref="B124" r:id="rId56"/>
+    <hyperlink ref="B136" r:id="rId57"/>
+    <hyperlink ref="B209" r:id="rId58"/>
+    <hyperlink ref="B77" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>